--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD23F9C-6962-934F-AC68-789B6951534C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C607A-C6F1-4843-AA10-908F34C9AD5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="334-native" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>CH2</t>
   </si>
@@ -153,6 +152,12 @@
   </si>
   <si>
     <t>Ga adatom is displaced from its position by the N-H interaction</t>
+  </si>
+  <si>
+    <t>04-01</t>
+  </si>
+  <si>
+    <t>04-02</t>
   </si>
 </sst>
 </file>
@@ -536,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,15 +737,15 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17">
-        <f>($C17-$C$14-$C4)*E$2</f>
+        <f t="shared" ref="E17:G18" si="0">($C17-$C$14-$C4)*E$2</f>
         <v>2367.716374441296</v>
       </c>
       <c r="F17" s="6">
-        <f>($C17-$C$14-$C4)*F$2</f>
+        <f t="shared" si="0"/>
         <v>6216439.3410956226</v>
       </c>
       <c r="G17">
-        <f>($C17-$C$14-$C4)*G$2</f>
+        <f t="shared" si="0"/>
         <v>64428.844250796967</v>
       </c>
     </row>
@@ -753,15 +758,15 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
-        <f>($C18-$C$14-$C5)*E$2</f>
+        <f t="shared" si="0"/>
         <v>2367.9794211960775</v>
       </c>
       <c r="F18" s="6">
-        <f>($C18-$C$14-$C5)*F$2</f>
+        <f t="shared" si="0"/>
         <v>6217129.9703503018</v>
       </c>
       <c r="G18">
-        <f>($C18-$C$14-$C5)*G$2</f>
+        <f t="shared" si="0"/>
         <v>64436.002117582633</v>
       </c>
     </row>
@@ -799,11 +804,11 @@
         <v>2367.78603261541</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:G20" si="0">($C20-$C14-$C7)*F$2</f>
+        <f t="shared" ref="F20:G20" si="1">($C20-$C14-$C7)*F$2</f>
         <v>6216622.2286317591</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64430.739746262232</v>
       </c>
     </row>
@@ -860,7 +865,7 @@
         <v>-37.38193082962934</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="1">($C23-$C$14-$C6)*G$2</f>
+        <f t="shared" ref="G23" si="2">($C23-$C$14-$C6)*G$2</f>
         <v>-0.38743635497161794</v>
       </c>
       <c r="H23" t="s">
@@ -886,15 +891,15 @@
         <v>1.0166710000000001</v>
       </c>
       <c r="E25">
-        <f>($C25-$C$23)*E$2</f>
+        <f t="shared" ref="E25:G26" si="3">($C25-$C$23)*E$2</f>
         <v>-4.4348671630359604E-2</v>
       </c>
       <c r="F25" s="6">
-        <f>($C25-$C$23)*F$2</f>
+        <f t="shared" si="3"/>
         <v>-116.43743736550914</v>
       </c>
       <c r="G25">
-        <f>($C25-$C$23)*G$2</f>
+        <f t="shared" si="3"/>
         <v>-1.2067888232079378</v>
       </c>
     </row>
@@ -912,15 +917,15 @@
         <v>1.0100480000000001</v>
       </c>
       <c r="E26">
-        <f>($C26-$C$23)*E$2</f>
+        <f t="shared" si="3"/>
         <v>-2.7115004410006804E-2</v>
       </c>
       <c r="F26" s="6">
-        <f>($C26-$C$23)*F$2</f>
+        <f t="shared" si="3"/>
         <v>-71.190444078472865</v>
       </c>
       <c r="G26">
-        <f>($C26-$C$23)*G$2</f>
+        <f t="shared" si="3"/>
         <v>-0.7378368519346975</v>
       </c>
       <c r="H26" t="s">
@@ -945,11 +950,11 @@
         <v>-4.7343272490252275E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ref="F27:G27" si="2">($C27-$C$22)*F$2</f>
+        <f t="shared" ref="F27:G27" si="4">($C27-$C$22)*F$2</f>
         <v>-124.29976192315735</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.2882760631823014</v>
       </c>
     </row>
@@ -975,7 +980,7 @@
         <v>-176.20821573657759</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="3">($C28-$C$22)*G$2</f>
+        <f t="shared" ref="G28" si="5">($C28-$C$22)*G$2</f>
         <v>-1.8262691976017715</v>
       </c>
     </row>
@@ -985,81 +990,56 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1">
-        <v>-6136.6621359842802</v>
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5">
+        <v>-8504.7384832722801</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30">
         <f>($C30-$C14-2*$C6)*E$2</f>
-        <v>2367.9402941132903</v>
+        <v>-0.1360531747093745</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:G30" si="4">($C30-$C14-2*$C6)*F$2</f>
-        <v>6217027.2421944439</v>
+        <f>($C30-$C14-2*$C6)*F$2</f>
+        <v>-357.20761019946275</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
-        <v>64434.937415429071</v>
+        <f t="shared" ref="F30:G30" si="6">($C30-$C14-2*$C6)*G$2</f>
+        <v>-3.7021954562632908</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
-        <v>-6136.74</v>
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-8504.7382095346002</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31">
-        <f>($C31-$C30)*E$2</f>
-        <v>-7.7864015719569579E-2</v>
+        <f>($C31-$C14-2*$C6)*E$2</f>
+        <v>-0.13577943702948403</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" ref="F31:G31" si="5">($C31-$C30)*F$2</f>
-        <v>-204.43197327172993</v>
+        <f t="shared" ref="F31:G31" si="7">($C31-$C14-2*$C6)*F$2</f>
+        <v>-356.48891192091031</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>-2.1187877888125559</v>
+        <f t="shared" si="7"/>
+        <v>-3.6947466745875719</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*E$2</f>
-        <v>4735.9324094500598</v>
-      </c>
-      <c r="F32" s="6">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*F$2</f>
-        <v>12434190.541011132</v>
-      </c>
-      <c r="G32">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*G$2</f>
-        <v>128871.28495817426</v>
-      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33">
-        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*E$2</f>
-        <v>4735.7765197336703</v>
-      </c>
-      <c r="F33" s="6">
-        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*F$2</f>
-        <v>12433781.252560752</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33" si="6">(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*G$2</f>
-        <v>128867.04298292505</v>
-      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
@@ -1067,43 +1047,83 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38">
+        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*E$2</f>
+        <v>4735.9324094500598</v>
+      </c>
+      <c r="F38" s="6">
+        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*F$2</f>
+        <v>12434190.541011132</v>
+      </c>
+      <c r="G38">
+        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*G$2</f>
+        <v>128871.28495817426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39">
+        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*E$2</f>
+        <v>4735.7765197336703</v>
+      </c>
+      <c r="F39" s="6">
+        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*F$2</f>
+        <v>12433781.252560752</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="8">(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*G$2</f>
+        <v>128867.04298292505</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C41" s="1">
         <v>-6112.7375196366702</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35">
-        <f>($C35-$C14-$C6)*E$2</f>
+      <c r="D41" s="1"/>
+      <c r="E41">
+        <f>($C41-$C14-$C6)*E$2</f>
         <v>2367.7839473491499</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" ref="F35:G35" si="7">($C35-$C14-$C6)*F$2</f>
+      <c r="F41" s="6">
+        <f t="shared" ref="F41:G41" si="9">($C41-$C14-$C6)*F$2</f>
         <v>6216616.7537651928</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
+      <c r="G41">
+        <f t="shared" si="9"/>
         <v>64430.683003277074</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
@@ -1356,6 +1376,24 @@
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C607A-C6F1-4843-AA10-908F34C9AD5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE3950-7215-4E4F-AE23-0A047A9D2CBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>CH2</t>
   </si>
@@ -158,6 +158,39 @@
   </si>
   <si>
     <t>04-02</t>
+  </si>
+  <si>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>0304+0202</t>
+  </si>
+  <si>
+    <t>06-01</t>
+  </si>
+  <si>
+    <t>0501: CH3O-HO-H-H3C</t>
+  </si>
+  <si>
+    <t>07-01</t>
+  </si>
+  <si>
+    <t>0501: CH3O-H2O-H3C</t>
+  </si>
+  <si>
+    <t>0201-0202</t>
+  </si>
+  <si>
+    <t>0201-0202 + rot60</t>
+  </si>
+  <si>
+    <t>08-01</t>
+  </si>
+  <si>
+    <t>0701: CH3O-H2O-H2C-H</t>
+  </si>
+  <si>
+    <t>0701: CH2O-H2O-H2C(Ga)-H</t>
   </si>
 </sst>
 </file>
@@ -541,16 +574,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -891,16 +924,16 @@
         <v>1.0166710000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:G26" si="3">($C25-$C$23)*E$2</f>
-        <v>-4.4348671630359604E-2</v>
+        <f>($C25-$C$14-$C$6)*E$2</f>
+        <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="3"/>
-        <v>-116.43743736550914</v>
+        <f t="shared" ref="F25:G25" si="3">($C25-$C$14-$C$6)*F$2</f>
+        <v>-153.81936819513848</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>-1.2067888232079378</v>
+        <v>-1.5942251781795558</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -917,16 +950,16 @@
         <v>1.0100480000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
-        <v>-2.7115004410006804E-2</v>
+        <f t="shared" ref="E26:G28" si="4">($C26-$C$14-$C$6)*E$2</f>
+        <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="3"/>
-        <v>-71.190444078472865</v>
+        <f t="shared" si="4"/>
+        <v>-108.5723749081022</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>-0.7378368519346975</v>
+        <f t="shared" si="4"/>
+        <v>-1.1252732069063154</v>
       </c>
       <c r="H26" t="s">
         <v>39</v>
@@ -946,16 +979,16 @@
         <v>0.93045900000000004</v>
       </c>
       <c r="E27">
-        <f>($C27-$C$22)*E$2</f>
-        <v>-4.7343272490252275E-2</v>
+        <f t="shared" si="4"/>
+        <v>-8.6447539860635914E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ref="F27:G27" si="4">($C27-$C$22)*F$2</f>
-        <v>-124.29976192315735</v>
+        <f t="shared" si="4"/>
+        <v>-226.96801590409959</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>-1.2882760631823014</v>
+        <v>-2.3523573776271007</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,16 +1005,16 @@
         <v>0.99119299999999999</v>
       </c>
       <c r="E28">
-        <f>($C28-$C$22)*E$2</f>
-        <v>-6.7114155679519172E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.10621842304990281</v>
       </c>
       <c r="F28" s="6">
-        <f>($C28-$C$22)*F$2</f>
-        <v>-176.20821573657759</v>
+        <f t="shared" si="4"/>
+        <v>-278.87646971751985</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="5">($C28-$C$22)*G$2</f>
-        <v>-1.8262691976017715</v>
+        <f t="shared" si="4"/>
+        <v>-2.8903505120465711</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -993,6 +1026,9 @@
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
       <c r="C30" s="5">
         <v>-8504.7384832722801</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>-357.20761019946275</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="F30:G30" si="6">($C30-$C14-2*$C6)*G$2</f>
+        <f t="shared" ref="G30" si="5">($C30-$C14-2*$C6)*G$2</f>
         <v>-3.7021954562632908</v>
       </c>
     </row>
@@ -1014,20 +1050,23 @@
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="5">
         <v>-8504.7382095346002</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31">
-        <f>($C31-$C14-2*$C6)*E$2</f>
+        <f>($C31-$C$14-2*$C$6)*E$2</f>
         <v>-0.13577943702948403</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" ref="F31:G31" si="7">($C31-$C14-2*$C6)*F$2</f>
+        <f t="shared" ref="F31:G31" si="6">($C31-$C14-2*$C6)*F$2</f>
         <v>-356.48891192091031</v>
       </c>
       <c r="G31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.6947466745875719</v>
       </c>
     </row>
@@ -1036,114 +1075,191 @@
       <c r="D32" s="1"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-8504.7365007362205</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>($C33-$C$14-2*$C$6)*E$2</f>
+        <v>-0.13407063864978852</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:G33" si="7">($C33-$C$14-2*$C$6)*F$2</f>
+        <v>-352.00246177501975</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>-3.6482479022473271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-8504.7727594261196</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.99895800000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:G37" si="8">($C35-$C$14-2*$C$6)*E$2</f>
+        <v>-0.17032932854890248</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="8"/>
+        <v>-447.19965210514346</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>-4.6348971096715914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-8504.7368555111207</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.0108809999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="8"/>
+        <v>-0.13442541354997672</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="8"/>
+        <v>-352.93392327546388</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>-3.6579018190065549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42">
         <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*E$2</f>
         <v>4735.9324094500598</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F42" s="6">
         <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*F$2</f>
         <v>12434190.541011132</v>
       </c>
-      <c r="G38">
+      <c r="G42">
         <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*G$2</f>
         <v>128871.28495817426</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43">
         <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*E$2</f>
         <v>4735.7765197336703</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F43" s="6">
         <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*F$2</f>
         <v>12433781.252560752</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="8">(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*G$2</f>
+      <c r="G43">
+        <f t="shared" ref="G43" si="9">(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*G$2</f>
         <v>128867.04298292505</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C45" s="1">
         <v>-6112.7375196366702</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41">
-        <f>($C41-$C14-$C6)*E$2</f>
+      <c r="D45" s="1"/>
+      <c r="E45">
+        <f>($C45-$C14-$C6)*E$2</f>
         <v>2367.7839473491499</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" ref="F41:G41" si="9">($C41-$C14-$C6)*F$2</f>
+      <c r="F45" s="6">
+        <f t="shared" ref="F45:G45" si="10">($C45-$C14-$C6)*F$2</f>
         <v>6216616.7537651928</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="9"/>
+      <c r="G45">
+        <f t="shared" si="10"/>
         <v>64430.683003277074</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
@@ -1394,6 +1510,18 @@
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE3950-7215-4E4F-AE23-0A047A9D2CBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73610AF-5F70-0741-AB0D-58801FBA2C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>CH2</t>
   </si>
@@ -191,13 +191,37 @@
   </si>
   <si>
     <t>0701: CH2O-H2O-H2C(Ga)-H</t>
+  </si>
+  <si>
+    <t>0501-MoveHToNTop</t>
+  </si>
+  <si>
+    <t>h2nm</t>
+  </si>
+  <si>
+    <t>05-02</t>
+  </si>
+  <si>
+    <t>Carbene is unlikely to sit on Ga</t>
+  </si>
+  <si>
+    <t>0502-0701-0801</t>
+  </si>
+  <si>
+    <t>2 Methanol molecules with the second adsorbed through N..H</t>
+  </si>
+  <si>
+    <t>2 Methanol molecules with the second adsorbed through Ga..O</t>
+  </si>
+  <si>
+    <t>This is the same as 0401</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +255,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +314,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,20 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="9" width="17.5" customWidth="1"/>
+    <col min="3" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -597,8 +659,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>1</v>
       </c>
@@ -608,14 +673,18 @@
       <c r="G2">
         <v>27.211386019999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>1000000000*6.62607015E-34*299792458/(4.35974465E-18)</f>
+        <v>45.563353283750892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -625,7 +694,7 @@
       <c r="D4" s="1"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -635,7 +704,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -646,11 +715,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="I6">
+      <c r="J6">
         <v>-24.081107764378</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -660,7 +729,7 @@
       <c r="D7" s="1"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -670,7 +739,7 @@
       <c r="D8" s="1"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -678,12 +747,12 @@
       <c r="D9" s="1"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -702,7 +771,7 @@
         <v>4.8443646164888312</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -721,12 +790,12 @@
         <v>1.4109934944110105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -740,11 +809,11 @@
         <v>1.00068</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="I14">
+      <c r="J14">
         <v>-8127.3307874485299</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -756,12 +825,12 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -782,7 +851,7 @@
         <v>64428.844250796967</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -803,7 +872,7 @@
         <v>64436.002117582633</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -824,7 +893,7 @@
         <v>64433.29801799023</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -845,12 +914,12 @@
         <v>64430.739746262232</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -875,8 +944,12 @@
         <f>($C22-$C$14-$C6)*G$2</f>
         <v>-1.0640813144447994</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f>H$2/$E22</f>
+        <v>-1165.17598583778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -901,16 +974,20 @@
         <f t="shared" ref="G23" si="2">($C23-$C$14-$C6)*G$2</f>
         <v>-0.38743635497161794</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <f t="shared" ref="H23:H41" si="3">H$2/$E23</f>
+        <v>-3200.1178481575535</v>
+      </c>
+      <c r="I23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -928,15 +1005,19 @@
         <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:G25" si="3">($C25-$C$14-$C$6)*F$2</f>
+        <f t="shared" ref="F25:G25" si="4">($C25-$C$14-$C$6)*F$2</f>
         <v>-153.81936819513848</v>
       </c>
       <c r="G25">
+        <f t="shared" si="4"/>
+        <v>-1.5942251781795558</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="3"/>
-        <v>-1.5942251781795558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-777.70820053510533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -950,22 +1031,26 @@
         <v>1.0100480000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:G28" si="4">($C26-$C$14-$C$6)*E$2</f>
+        <f t="shared" ref="E26:G28" si="5">($C26-$C$14-$C$6)*E$2</f>
         <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="4"/>
+        <f>($C26-$C$14-$C$6)*F$2</f>
         <v>-108.5723749081022</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1252732069063154</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-1101.8141967304507</v>
+      </c>
+      <c r="I26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
@@ -979,19 +1064,23 @@
         <v>0.93045900000000004</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.6447539860635914E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-226.96801590409959</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.3523573776271007</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-527.06361982312774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1005,261 +1094,328 @@
         <v>0.99119299999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10621842304990281</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-278.87646971751985</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8903505120465711</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-428.95904472564644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5">
-        <v>-8504.7384832722801</v>
-      </c>
-      <c r="D30" s="1"/>
+      <c r="C30" s="2">
+        <v>-8504.7382560918795</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.99794000000000005</v>
+      </c>
       <c r="E30">
         <f>($C30-$C14-2*$C6)*E$2</f>
-        <v>-0.1360531747093745</v>
+        <v>-0.13582599430883135</v>
       </c>
       <c r="F30" s="6">
         <f>($C30-$C14-2*$C6)*F$2</f>
-        <v>-357.20761019946275</v>
+        <v>-356.61114805783671</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="5">($C30-$C14-2*$C6)*G$2</f>
-        <v>-3.7021954562632908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+        <f t="shared" ref="G30" si="6">($C30-$C14-2*$C6)*G$2</f>
+        <v>-3.6960135626879329</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-335.4538541433551</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="5">
-        <v>-8504.7382095346002</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31">
+      <c r="C31" s="7">
+        <v>-8504.7339165439298</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E31" s="7">
         <f>($C31-$C$14-2*$C$6)*E$2</f>
-        <v>-0.13577943702948403</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" ref="F31:G31" si="6">($C31-$C14-2*$C6)*F$2</f>
-        <v>-356.48891192091031</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>-3.6947466745875719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.13148644635911921</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:G31" si="7">($C31-$C14-2*$C6)*F$2</f>
+        <v>-345.21766491586749</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="7"/>
+        <v>-3.5779284482760163</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="3"/>
+        <v>-346.52509475620838</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5">
-        <v>-8504.7365007362205</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33">
+      <c r="C33" s="7">
+        <v>-8504.7308178950698</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E33" s="7">
         <f>($C33-$C$14-2*$C$6)*E$2</f>
-        <v>-0.13407063864978852</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33:G33" si="7">($C33-$C$14-2*$C$6)*F$2</f>
-        <v>-352.00246177501975</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="7"/>
-        <v>-3.6482479022473271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+        <v>-0.12838779749908724</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:G34" si="8">($C33-$C$14-2*$C$6)*F$2</f>
+        <v>-337.08216233385355</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="8"/>
+        <v>-3.4936099180052533</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="3"/>
+        <v>-354.88850320120821</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-8504.7174627214208</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.008062</v>
+      </c>
+      <c r="E34">
+        <f>($C34-$C$14-2*$C$6)*E$2</f>
+        <v>-0.11503262385012647</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="8"/>
+        <v>-302.01815391850704</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>-3.1301971324792497</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>-396.09070678170747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>-8504.7727594261196</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>0.99895800000000001</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35:G37" si="8">($C35-$C$14-2*$C$6)*E$2</f>
+      <c r="E36">
+        <f t="shared" ref="E36:G38" si="9">($C36-$C$14-2*$C$6)*E$2</f>
         <v>-0.17032932854890248</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="8"/>
+      <c r="F36" s="6">
+        <f t="shared" si="9"/>
         <v>-447.19965210514346</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
+      <c r="G36">
+        <f t="shared" si="9"/>
         <v>-4.6348971096715914</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>-267.50151410753318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>-8504.7368555111207</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>1.0108809999999999</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="8"/>
+      <c r="E38">
+        <f t="shared" si="9"/>
         <v>-0.13442541354997672</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="8"/>
+      <c r="F38" s="6">
+        <f t="shared" si="9"/>
         <v>-352.93392327546388</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
+      <c r="G38">
+        <f t="shared" si="9"/>
         <v>-3.6579018190065549</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>-338.94895377659623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-8504.7493535773501</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.0147459999999999</v>
+      </c>
+      <c r="E40">
+        <f>($C40-$C$14-2*$C$6)*E$2</f>
+        <v>-0.14692347977943143</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" ref="F40:G41" si="10">($C40-$C$14-2*$C$6)*F$2</f>
+        <v>-385.74759616089722</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>-3.9979915236797732</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-310.11621391048442</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
+      <c r="C41" s="12">
+        <v>-8504.7160353965301</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.021455</v>
+      </c>
+      <c r="E41" s="11">
+        <f>($C41-$C$14-2*$C$6)*E$2</f>
+        <v>-0.11360529895937077</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="10"/>
+        <v>-298.27071241782795</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="10"/>
+        <v>-3.0913576439009423</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="3"/>
+        <v>-401.06714828545051</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*E$2</f>
-        <v>4735.9324094500598</v>
-      </c>
-      <c r="F42" s="6">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*F$2</f>
-        <v>12434190.541011132</v>
-      </c>
-      <c r="G42">
-        <f>(($C$17-$C$14)+($C$18-$C$14)-($C$25-$C$14))*G$2</f>
-        <v>128871.28495817426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43">
-        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*E$2</f>
-        <v>4735.7765197336703</v>
-      </c>
-      <c r="F43" s="6">
-        <f>(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*F$2</f>
-        <v>12433781.252560752</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ref="G43" si="9">(($C$20-$C$14)+($C$19-$C$14)-($C$25-$C$14))*G$2</f>
-        <v>128867.04298292505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-6112.7375196366702</v>
-      </c>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45">
-        <f>($C45-$C14-$C6)*E$2</f>
-        <v>2367.7839473491499</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" ref="F45:G45" si="10">($C45-$C14-$C6)*F$2</f>
-        <v>6216616.7537651928</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="10"/>
-        <v>64430.683003277074</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
@@ -1522,6 +1678,9 @@
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73610AF-5F70-0741-AB0D-58801FBA2C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF32DF-52A7-F04B-B794-F4C31D93DF92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>CH2</t>
   </si>
@@ -215,13 +215,52 @@
   </si>
   <si>
     <t>This is the same as 0401</t>
+  </si>
+  <si>
+    <t>09-01</t>
+  </si>
+  <si>
+    <t>0401: H(C) -&gt; Nsur</t>
+  </si>
+  <si>
+    <t>Try CH3O-H2O-H3C with water bound through the N..H-OH, this config might be more stable</t>
+  </si>
+  <si>
+    <t>08-02</t>
+  </si>
+  <si>
+    <t>08-03</t>
+  </si>
+  <si>
+    <t>07-02</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>H3COH(Nsur), this is necessary to prove that dimers are more stable</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>GaN RKS</t>
+  </si>
+  <si>
+    <t>GaN UKS</t>
+  </si>
+  <si>
+    <t>GaN, Ga atom jumps one ring</t>
+  </si>
+  <si>
+    <t>Continue the 07-02 logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +324,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +375,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2">
         <v>-8456.4405038740697</v>
@@ -817,6 +874,9 @@
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
       <c r="C15" s="2">
         <v>-8456.4366114977893</v>
       </c>
@@ -826,861 +886,928 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-6095.4072979975999</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17">
-        <f t="shared" ref="E17:G18" si="0">($C17-$C$14-$C4)*E$2</f>
-        <v>2367.716374441296</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>6216439.3410956226</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>64428.844250796967</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>-6105.6808501074102</v>
+        <v>-6095.4072979975999</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>2367.9794211960775</v>
+        <f>($C18-$C$14-$C4)*E$2</f>
+        <v>2367.716374441296</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>6217129.9703503018</v>
+        <f>($C18-$C$14-$C4)*F$2</f>
+        <v>6216439.3410956226</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>64436.002117582633</v>
+        <f>($C18-$C$14-$C4)*G$2</f>
+        <v>64428.844250796967</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>-6111.4276401083998</v>
+        <v>-6105.6808501074102</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
-        <f>($C19-$C8-$C14)*E2</f>
-        <v>2367.8800473681358</v>
+        <f>($C19-$C$14-$C5)*E$2</f>
+        <v>2367.9794211960775</v>
       </c>
       <c r="F19" s="6">
-        <f>($C19-$C8-$C14)*F2</f>
-        <v>6216869.0643650405</v>
+        <f>($C19-$C$14-$C5)*F$2</f>
+        <v>6217129.9703503018</v>
       </c>
       <c r="G19">
-        <f>($C19-$C8-$C14)*G2</f>
-        <v>64433.29801799023</v>
+        <f>($C19-$C$14-$C5)*G$2</f>
+        <v>64436.002117582633</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>-6089.8163977129998</v>
+        <v>-6111.4276401083998</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
-        <f>($C20-$C14-$C7)*E$2</f>
+        <f>($C20-$C8-$C14)*E2</f>
+        <v>2367.8800473681358</v>
+      </c>
+      <c r="F20" s="6">
+        <f>($C20-$C8-$C14)*F2</f>
+        <v>6216869.0643650405</v>
+      </c>
+      <c r="G20">
+        <f>($C20-$C8-$C14)*G2</f>
+        <v>64433.29801799023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-6089.8163977129998</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21">
+        <f>($C21-$C14-$C7)*E$2</f>
         <v>2367.78603261541</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:G20" si="1">($C20-$C14-$C7)*F$2</f>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:G21" si="0">($C21-$C14-$C7)*F$2</f>
         <v>6216622.2286317591</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f t="shared" si="0"/>
         <v>64430.739746262232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="6"/>
-    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-8480.5605712531906</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.01186</v>
-      </c>
-      <c r="E22">
-        <f>($C22-$C$14-$C6)*E$2</f>
-        <v>-3.9104267370383639E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <f>($C22-$C$14-$C6)*F$2</f>
-        <v>-102.66825398094224</v>
-      </c>
-      <c r="G22">
-        <f>($C22-$C$14-$C6)*G$2</f>
-        <v>-1.0640813144447994</v>
-      </c>
-      <c r="H22">
-        <f>H$2/$E22</f>
-        <v>-1165.17598583778</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>-8480.5357050093698</v>
+        <v>-8480.5605712531906</v>
       </c>
       <c r="D23" s="2">
-        <v>1.0103949999999999</v>
+        <v>1.01186</v>
       </c>
       <c r="E23">
         <f>($C23-$C$14-$C6)*E$2</f>
-        <v>-1.4238023549658863E-2</v>
+        <v>-3.9104267370383639E-2</v>
       </c>
       <c r="F23" s="6">
         <f>($C23-$C$14-$C6)*F$2</f>
+        <v>-102.66825398094224</v>
+      </c>
+      <c r="G23">
+        <f>($C23-$C$14-$C6)*G$2</f>
+        <v>-1.0640813144447994</v>
+      </c>
+      <c r="H23">
+        <f>H$2/$E23</f>
+        <v>-1165.17598583778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-8480.5357050093698</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.0103949999999999</v>
+      </c>
+      <c r="E24">
+        <f>($C24-$C$14-$C6)*E$2</f>
+        <v>-1.4238023549658863E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <f>($C24-$C$14-$C6)*F$2</f>
         <v>-37.38193082962934</v>
       </c>
-      <c r="G23">
-        <f t="shared" ref="G23" si="2">($C23-$C$14-$C6)*G$2</f>
+      <c r="G24">
+        <f t="shared" ref="G24" si="1">($C24-$C$14-$C6)*G$2</f>
         <v>-0.38743635497161794</v>
       </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H41" si="3">H$2/$E23</f>
+      <c r="H24">
+        <f t="shared" ref="H24:H44" si="2">H$2/$E24</f>
         <v>-3200.1178481575535</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-8480.5800536810002</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.0166710000000001</v>
-      </c>
-      <c r="E25">
-        <f>($C25-$C$14-$C$6)*E$2</f>
-        <v>-5.8586695180018467E-2</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" ref="F25:G25" si="4">($C25-$C$14-$C$6)*F$2</f>
-        <v>-153.81936819513848</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>-1.5942251781795558</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>-777.70820053510533</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-8480.5628200137799</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.0100480000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:G28" si="5">($C26-$C$14-$C$6)*E$2</f>
-        <v>-4.1353027959665667E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <f>($C26-$C$14-$C$6)*F$2</f>
-        <v>-108.5723749081022</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>-1.1252732069063154</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>-1101.8141967304507</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5">
-        <v>-8480.6079145256808</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.93045900000000004</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-8480.5800536810002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.0166710000000001</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
-        <v>-8.6447539860635914E-2</v>
+        <f>($C27-$C$14-$C$6)*E$2</f>
+        <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="5"/>
-        <v>-226.96801590409959</v>
+        <f t="shared" ref="F27:G27" si="3">($C27-$C$14-$C$6)*F$2</f>
+        <v>-153.81936819513848</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>-2.3523573776271007</v>
+        <f t="shared" si="3"/>
+        <v>-1.5942251781795558</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>-527.06361982312774</v>
+        <f t="shared" si="2"/>
+        <v>-777.70820053510533</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2">
-        <v>-8480.6276854088701</v>
+        <v>-8480.5628200137799</v>
       </c>
       <c r="D28" s="2">
-        <v>0.99119299999999999</v>
+        <v>1.0100480000000001</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
-        <v>-0.10621842304990281</v>
+        <f t="shared" ref="E28:G30" si="4">($C28-$C$14-$C$6)*E$2</f>
+        <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="5"/>
-        <v>-278.87646971751985</v>
+        <f>($C28-$C$14-$C$6)*F$2</f>
+        <v>-108.5723749081022</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>-2.8903505120465711</v>
+        <f t="shared" si="4"/>
+        <v>-1.1252732069063154</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
-        <v>-428.95904472564644</v>
+        <f t="shared" si="2"/>
+        <v>-1101.8141967304507</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5">
+        <v>-8480.6079145256808</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.93045900000000004</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>-8.6447539860635914E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="4"/>
+        <v>-226.96801590409959</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-2.3523573776271007</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-527.06361982312774</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-8480.6276854088701</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.99119299999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>-0.10621842304990281</v>
+      </c>
+      <c r="F30" s="6">
+        <f>($C30-$C$14-$C$6)*F$2</f>
+        <v>-278.87646971751985</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>-2.8903505120465711</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-428.95904472564644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C32" s="2">
         <v>-8504.7382560918795</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>0.99794000000000005</v>
       </c>
-      <c r="E30">
-        <f>($C30-$C14-2*$C6)*E$2</f>
+      <c r="E32">
+        <f>($C32-$C14-2*$C6)*E$2</f>
         <v>-0.13582599430883135</v>
       </c>
-      <c r="F30" s="6">
-        <f>($C30-$C14-2*$C6)*F$2</f>
+      <c r="F32" s="6">
+        <f>($C32-$C14-2*$C6)*F$2</f>
         <v>-356.61114805783671</v>
       </c>
-      <c r="G30">
-        <f t="shared" ref="G30" si="6">($C30-$C14-2*$C6)*G$2</f>
+      <c r="G32">
+        <f t="shared" ref="G32" si="5">($C32-$C14-2*$C6)*G$2</f>
         <v>-3.6960135626879329</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="H32">
+        <f t="shared" si="2"/>
         <v>-335.4538541433551</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="7">
-        <v>-8504.7339165439298</v>
-      </c>
-      <c r="D31" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E31" s="7">
-        <f>($C31-$C$14-2*$C$6)*E$2</f>
-        <v>-0.13148644635911921</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" ref="F31:G31" si="7">($C31-$C14-2*$C6)*F$2</f>
-        <v>-345.21766491586749</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="7"/>
-        <v>-3.5779284482760163</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="3"/>
-        <v>-346.52509475620838</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7">
-        <v>-8504.7308178950698</v>
+        <v>-8504.7339165439298</v>
       </c>
       <c r="D33" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E33" s="7">
         <f>($C33-$C$14-2*$C$6)*E$2</f>
+        <v>-0.13148644635911921</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:G33" si="6">($C33-$C14-2*$C6)*F$2</f>
+        <v>-345.21766491586749</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="6"/>
+        <v>-3.5779284482760163</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="2"/>
+        <v>-346.52509475620838</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-8504.7308178950698</v>
+      </c>
+      <c r="D35" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E35" s="7">
+        <f>($C35-$C$14-2*$C$6)*E$2</f>
         <v>-0.12838779749908724</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" ref="F33:G34" si="8">($C33-$C$14-2*$C$6)*F$2</f>
+      <c r="F35" s="9">
+        <f t="shared" ref="F35:G36" si="7">($C35-$C$14-2*$C$6)*F$2</f>
         <v>-337.08216233385355</v>
       </c>
-      <c r="G33" s="7">
-        <f t="shared" si="8"/>
+      <c r="G35" s="7">
+        <f t="shared" si="7"/>
         <v>-3.4936099180052533</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" si="3"/>
+      <c r="H35" s="7">
+        <f t="shared" si="2"/>
         <v>-354.88850320120821</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-8504.7174627214208</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.008062</v>
-      </c>
-      <c r="E34">
-        <f>($C34-$C$14-2*$C$6)*E$2</f>
-        <v>-0.11503262385012647</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="8"/>
-        <v>-302.01815391850704</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>-3.1301971324792497</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>-396.09070678170747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2">
-        <v>-8504.7727594261196</v>
+        <v>-8504.7174627214208</v>
       </c>
       <c r="D36" s="2">
-        <v>0.99895800000000001</v>
+        <v>1.008062</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:G38" si="9">($C36-$C$14-2*$C$6)*E$2</f>
-        <v>-0.17032932854890248</v>
+        <f>($C36-$C$14-2*$C$6)*E$2</f>
+        <v>-0.11503262385012647</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="9"/>
-        <v>-447.19965210514346</v>
+        <f t="shared" si="7"/>
+        <v>-302.01815391850704</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
-        <v>-4.6348971096715914</v>
+        <f t="shared" si="7"/>
+        <v>-3.1301971324792497</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>-267.50151410753318</v>
+        <f t="shared" si="2"/>
+        <v>-396.09070678170747</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>-8504.7368555111207</v>
+        <v>-8504.7727594261196</v>
       </c>
       <c r="D38" s="2">
-        <v>1.0108809999999999</v>
+        <v>0.99895800000000001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
-        <v>-0.13442541354997672</v>
+        <f t="shared" ref="E38:G40" si="8">($C38-$C$14-2*$C$6)*E$2</f>
+        <v>-0.17032932854890248</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="9"/>
-        <v>-352.93392327546388</v>
+        <f t="shared" si="8"/>
+        <v>-447.19965210514346</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
-        <v>-3.6579018190065549</v>
+        <f t="shared" si="8"/>
+        <v>-4.6348971096715914</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
-        <v>-338.94895377659623</v>
+        <f t="shared" si="2"/>
+        <v>-267.50151410753318</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-8504.7368555111207</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.0108809999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="8"/>
+        <v>-0.13442541354997672</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="8"/>
+        <v>-352.93392327546388</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="8"/>
+        <v>-3.6579018190065549</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>-338.94895377659623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C43" s="2">
         <v>-8504.7493535773501</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D43" s="2">
         <v>1.0147459999999999</v>
       </c>
-      <c r="E40">
-        <f>($C40-$C$14-2*$C$6)*E$2</f>
+      <c r="E43">
+        <f>($C43-$C$14-2*$C$6)*E$2</f>
         <v>-0.14692347977943143</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" ref="F40:G41" si="10">($C40-$C$14-2*$C$6)*F$2</f>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:G44" si="9">($C43-$C$14-2*$C$6)*F$2</f>
         <v>-385.74759616089722</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="10"/>
+      <c r="G43">
+        <f t="shared" si="9"/>
         <v>-3.9979915236797732</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
+      <c r="H43">
+        <f t="shared" si="2"/>
         <v>-310.11621391048442</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C44" s="12">
         <v>-8504.7160353965301</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D44" s="12">
         <v>1.021455</v>
       </c>
-      <c r="E41" s="11">
-        <f>($C41-$C$14-2*$C$6)*E$2</f>
+      <c r="E44" s="11">
+        <f>($C44-$C$14-2*$C$6)*E$2</f>
         <v>-0.11360529895937077</v>
       </c>
-      <c r="F41" s="13">
-        <f t="shared" si="10"/>
+      <c r="F44" s="13">
+        <f t="shared" si="9"/>
         <v>-298.27071241782795</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="10"/>
+      <c r="G44" s="11">
+        <f t="shared" si="9"/>
         <v>-3.0913576439009423</v>
       </c>
-      <c r="H41" s="11">
-        <f t="shared" si="3"/>
+      <c r="H44" s="11">
+        <f t="shared" si="2"/>
         <v>-401.06714828545051</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I44" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="F44" s="6"/>
-    </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="15">
+        <v>-8504.8045151052902</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="16">
+        <f>($C47-$C$14-2*$C$6)*E$2</f>
+        <v>-0.20208500771950355</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" ref="F47:G47" si="10">($C47-$C$14-2*$C$6)*F$2</f>
+        <v>-530.57418776755662</v>
+      </c>
+      <c r="G47" s="16">
+        <f t="shared" si="10"/>
+        <v>-5.4990131539100906</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF32DF-52A7-F04B-B794-F4C31D93DF92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B636D-A15C-1545-8FA2-E6993DD7E8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B636D-A15C-1545-8FA2-E6993DD7E8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99952B-ABEE-A547-A4A6-CB31F32AEDA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>CH2</t>
   </si>
@@ -220,12 +220,6 @@
     <t>09-01</t>
   </si>
   <si>
-    <t>0401: H(C) -&gt; Nsur</t>
-  </si>
-  <si>
-    <t>Try CH3O-H2O-H3C with water bound through the N..H-OH, this config might be more stable</t>
-  </si>
-  <si>
     <t>08-02</t>
   </si>
   <si>
@@ -254,6 +248,21 @@
   </si>
   <si>
     <t>Continue the 07-02 logic</t>
+  </si>
+  <si>
+    <t>02-04</t>
+  </si>
+  <si>
+    <t>same, attempt 2</t>
+  </si>
+  <si>
+    <t>0401: CH3O-H2O-H3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originally water is bound through the N..H-OH but almost dissociates into N..H and HO..Ga </t>
+  </si>
+  <si>
+    <t>0401: C-H diss to Nsur</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +388,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2">
         <v>-8456.4405038740697</v>
@@ -875,7 +886,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2">
         <v>-8456.4366114977893</v>
@@ -887,10 +898,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -910,15 +921,15 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
-        <f>($C18-$C$14-$C4)*E$2</f>
+        <f t="shared" ref="E18:G19" si="0">($C18-$C$14-$C4)*E$2</f>
         <v>2367.716374441296</v>
       </c>
       <c r="F18" s="6">
-        <f>($C18-$C$14-$C4)*F$2</f>
+        <f t="shared" si="0"/>
         <v>6216439.3410956226</v>
       </c>
       <c r="G18">
-        <f>($C18-$C$14-$C4)*G$2</f>
+        <f t="shared" si="0"/>
         <v>64428.844250796967</v>
       </c>
     </row>
@@ -931,15 +942,15 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
-        <f>($C19-$C$14-$C5)*E$2</f>
+        <f t="shared" si="0"/>
         <v>2367.9794211960775</v>
       </c>
       <c r="F19" s="6">
-        <f>($C19-$C$14-$C5)*F$2</f>
+        <f t="shared" si="0"/>
         <v>6217129.9703503018</v>
       </c>
       <c r="G19">
-        <f>($C19-$C$14-$C5)*G$2</f>
+        <f t="shared" si="0"/>
         <v>64436.002117582633</v>
       </c>
     </row>
@@ -977,11 +988,11 @@
         <v>2367.78603261541</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:G21" si="0">($C21-$C14-$C7)*F$2</f>
+        <f t="shared" ref="F21:G21" si="1">($C21-$C14-$C7)*F$2</f>
         <v>6216622.2286317591</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64430.739746262232</v>
       </c>
     </row>
@@ -1042,11 +1053,11 @@
         <v>-37.38193082962934</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="1">($C24-$C$14-$C6)*G$2</f>
+        <f t="shared" ref="G24" si="2">($C24-$C$14-$C6)*G$2</f>
         <v>-0.38743635497161794</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H44" si="2">H$2/$E24</f>
+        <f t="shared" ref="H24:H45" si="3">H$2/$E24</f>
         <v>-3200.1178481575535</v>
       </c>
       <c r="I24" t="s">
@@ -1055,759 +1066,884 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-8480.5800536810002</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.0166710000000001</v>
-      </c>
-      <c r="E27">
-        <f>($C27-$C$14-$C$6)*E$2</f>
-        <v>-5.8586695180018467E-2</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" ref="F27:G27" si="3">($C27-$C$14-$C$6)*F$2</f>
-        <v>-153.81936819513848</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>-1.5942251781795558</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>-777.70820053510533</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
-        <v>-8480.5628200137799</v>
+        <v>-8480.5800536810002</v>
       </c>
       <c r="D28" s="2">
-        <v>1.0100480000000001</v>
+        <v>1.0166710000000001</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:G30" si="4">($C28-$C$14-$C$6)*E$2</f>
-        <v>-4.1353027959665667E-2</v>
+        <f>($C28-$C$14-$C$6)*E$2</f>
+        <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F28" s="6">
-        <f>($C28-$C$14-$C$6)*F$2</f>
-        <v>-108.5723749081022</v>
+        <f t="shared" ref="F28:G28" si="4">($C28-$C$14-$C$6)*F$2</f>
+        <v>-153.81936819513848</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>-1.1252732069063154</v>
+        <v>-1.5942251781795558</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>-1101.8141967304507</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>-777.70820053510533</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="5">
-        <v>-8480.6079145256808</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.93045900000000004</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-8480.5628200137799</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.0100480000000001</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>-8.6447539860635914E-2</v>
+        <f t="shared" ref="E29:G31" si="5">($C29-$C$14-$C$6)*E$2</f>
+        <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>-226.96801590409959</v>
+        <f>($C29-$C$14-$C$6)*F$2</f>
+        <v>-108.5723749081022</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
-        <v>-2.3523573776271007</v>
+        <f t="shared" si="5"/>
+        <v>-1.1252732069063154</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>-527.06361982312774</v>
+        <f t="shared" si="3"/>
+        <v>-1101.8141967304507</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5">
+        <v>-8480.6079145256808</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.93045900000000004</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>-8.6447539860635914E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="5"/>
+        <v>-226.96801590409959</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>-2.3523573776271007</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-527.06361982312774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>-8480.6276854088701</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>0.99119299999999999</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="4"/>
+      <c r="E31">
+        <f t="shared" si="5"/>
         <v>-0.10621842304990281</v>
       </c>
-      <c r="F30" s="6">
-        <f>($C30-$C$14-$C$6)*F$2</f>
+      <c r="F31" s="6">
+        <f>($C31-$C$14-$C$6)*F$2</f>
         <v>-278.87646971751985</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
+      <c r="G31">
+        <f t="shared" si="5"/>
         <v>-2.8903505120465711</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
+      <c r="H31">
+        <f t="shared" si="3"/>
         <v>-428.95904472564644</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="F31" s="6"/>
-    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>-8504.7382560918795</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>0.99794000000000005</v>
       </c>
-      <c r="E32">
-        <f>($C32-$C14-2*$C6)*E$2</f>
+      <c r="E33">
+        <f>($C33-$C14-2*$C6)*E$2</f>
         <v>-0.13582599430883135</v>
       </c>
-      <c r="F32" s="6">
-        <f>($C32-$C14-2*$C6)*F$2</f>
+      <c r="F33" s="6">
+        <f>($C33-$C14-2*$C6)*F$2</f>
         <v>-356.61114805783671</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32" si="5">($C32-$C14-2*$C6)*G$2</f>
+      <c r="G33">
+        <f t="shared" ref="G33" si="6">($C33-$C14-2*$C6)*G$2</f>
         <v>-3.6960135626879329</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
+      <c r="H33">
+        <f t="shared" si="3"/>
         <v>-335.4538541433551</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <v>-8504.7339165439298</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E33" s="7">
-        <f>($C33-$C$14-2*$C$6)*E$2</f>
+      <c r="E34" s="7">
+        <f>($C34-$C$14-2*$C$6)*E$2</f>
         <v>-0.13148644635911921</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" ref="F33:G33" si="6">($C33-$C14-2*$C6)*F$2</f>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:G34" si="7">($C34-$C14-2*$C6)*F$2</f>
         <v>-345.21766491586749</v>
       </c>
-      <c r="G33" s="7">
-        <f t="shared" si="6"/>
+      <c r="G34" s="7">
+        <f t="shared" si="7"/>
         <v>-3.5779284482760163</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" si="2"/>
+      <c r="H34" s="7">
+        <f t="shared" si="3"/>
         <v>-346.52509475620838</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="7">
         <v>-8504.7308178950698</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E35" s="7">
-        <f>($C35-$C$14-2*$C$6)*E$2</f>
+      <c r="E36" s="7">
+        <f>($C36-$C$14-2*$C$6)*E$2</f>
         <v>-0.12838779749908724</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" ref="F35:G36" si="7">($C35-$C$14-2*$C$6)*F$2</f>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:G37" si="8">($C36-$C$14-2*$C$6)*F$2</f>
         <v>-337.08216233385355</v>
       </c>
-      <c r="G35" s="7">
-        <f t="shared" si="7"/>
+      <c r="G36" s="7">
+        <f t="shared" si="8"/>
         <v>-3.4936099180052533</v>
       </c>
-      <c r="H35" s="7">
-        <f t="shared" si="2"/>
+      <c r="H36" s="7">
+        <f t="shared" si="3"/>
         <v>-354.88850320120821</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>-8504.7174627214208</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>1.008062</v>
       </c>
-      <c r="E36">
-        <f>($C36-$C$14-2*$C$6)*E$2</f>
+      <c r="E37">
+        <f>($C37-$C$14-2*$C$6)*E$2</f>
         <v>-0.11503262385012647</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="7"/>
+      <c r="F37" s="6">
+        <f t="shared" si="8"/>
         <v>-302.01815391850704</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
+      <c r="G37">
+        <f t="shared" si="8"/>
         <v>-3.1301971324792497</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
+      <c r="H37">
+        <f>H$2/$E37</f>
         <v>-396.09070678170747</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="F37" s="6"/>
-    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>-8504.7727594261196</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D39" s="2">
         <v>0.99895800000000001</v>
       </c>
-      <c r="E38">
-        <f t="shared" ref="E38:G40" si="8">($C38-$C$14-2*$C$6)*E$2</f>
+      <c r="E39">
+        <f t="shared" ref="E39:G42" si="9">($C39-$C$14-2*$C$6)*E$2</f>
         <v>-0.17032932854890248</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="8"/>
+      <c r="F39" s="6">
+        <f t="shared" si="9"/>
         <v>-447.19965210514346</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="8"/>
+      <c r="G39">
+        <f t="shared" si="9"/>
         <v>-4.6348971096715914</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
+      <c r="H39">
+        <f t="shared" si="3"/>
         <v>-267.50151410753318</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-8504.7368555111207</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.0108809999999999</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="8"/>
-        <v>-0.13442541354997672</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="8"/>
-        <v>-352.93392327546388</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="8"/>
-        <v>-3.6579018190065549</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>-338.94895377659623</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-8504.7368555111207</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.0108809999999999</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>-0.13442541354997672</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="9"/>
+        <v>-352.93392327546388</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>-3.6579018190065549</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>-338.94895377659623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-8504.8265441265103</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.99854799999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="9"/>
+        <v>-0.22411402893958154</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="9"/>
+        <v>-588.41138298087139</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="9"/>
+        <v>-6.0984533539724044</v>
+      </c>
+      <c r="H42">
+        <f>H$2/$E42</f>
+        <v>-203.30433350976983</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-8504.7493535773501</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.0147459999999999</v>
+      </c>
+      <c r="E44">
+        <f>($C44-$C$14-2*$C$6)*E$2</f>
+        <v>-0.14692347977943143</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" ref="F44:G45" si="10">($C44-$C$14-2*$C$6)*F$2</f>
+        <v>-385.74759616089722</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>-3.9979915236797732</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>-310.11621391048442</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-8504.7160353965301</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1.021455</v>
+      </c>
+      <c r="E45" s="11">
+        <f>($C45-$C$14-2*$C$6)*E$2</f>
+        <v>-0.11360529895937077</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="10"/>
+        <v>-298.27071241782795</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="10"/>
+        <v>-3.0913576439009423</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="3"/>
+        <v>-401.06714828545051</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-8504.7493535773501</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.0147459999999999</v>
-      </c>
-      <c r="E43">
-        <f>($C43-$C$14-2*$C$6)*E$2</f>
-        <v>-0.14692347977943143</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" ref="F43:G44" si="9">($C43-$C$14-2*$C$6)*F$2</f>
-        <v>-385.74759616089722</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
-        <v>-3.9979915236797732</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>-310.11621391048442</v>
-      </c>
-      <c r="I43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="12">
-        <v>-8504.7160353965301</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1.021455</v>
-      </c>
-      <c r="E44" s="11">
-        <f>($C44-$C$14-2*$C$6)*E$2</f>
-        <v>-0.11360529895937077</v>
-      </c>
-      <c r="F44" s="13">
-        <f t="shared" si="9"/>
-        <v>-298.27071241782795</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="9"/>
-        <v>-3.0913576439009423</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="2"/>
-        <v>-401.06714828545051</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="11"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="15">
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="15">
         <v>-8504.8045151052902</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="16">
-        <f>($C47-$C$14-2*$C$6)*E$2</f>
+      <c r="D48" s="1"/>
+      <c r="E48" s="16">
+        <f>($C48-$C$14-2*$C$6)*E$2</f>
         <v>-0.20208500771950355</v>
       </c>
-      <c r="F47" s="17">
-        <f t="shared" ref="F47:G47" si="10">($C47-$C$14-2*$C$6)*F$2</f>
+      <c r="F48" s="17">
+        <f t="shared" ref="F48:G48" si="11">($C48-$C$14-2*$C$6)*F$2</f>
         <v>-530.57418776755662</v>
       </c>
-      <c r="G47" s="16">
-        <f t="shared" si="10"/>
+      <c r="G48" s="16">
+        <f t="shared" si="11"/>
         <v>-5.4990131539100906</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="3:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="6:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140"/>
       <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="F141" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99952B-ABEE-A547-A4A6-CB31F32AEDA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B5573-0679-F749-8D6B-8F41C0E4EEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>CH2</t>
   </si>
@@ -190,9 +190,6 @@
     <t>0701: CH3O-H2O-H2C-H</t>
   </si>
   <si>
-    <t>0701: CH2O-H2O-H2C(Ga)-H</t>
-  </si>
-  <si>
     <t>0501-MoveHToNTop</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>2 Methanol molecules with the second adsorbed through Ga..O</t>
   </si>
   <si>
-    <t>This is the same as 0401</t>
-  </si>
-  <si>
     <t>09-01</t>
   </si>
   <si>
@@ -262,7 +256,91 @@
     <t xml:space="preserve">originally water is bound through the N..H-OH but almost dissociates into N..H and HO..Ga </t>
   </si>
   <si>
-    <t>0401: C-H diss to Nsur</t>
+    <t>04-03</t>
+  </si>
+  <si>
+    <t>01-03: Ga jumps but returns</t>
+  </si>
+  <si>
+    <t>04-04</t>
+  </si>
+  <si>
+    <t>01-03: Ga jumps</t>
+  </si>
+  <si>
+    <t>This is the same as 0401 but a restrat did not give time to unrestrict</t>
+  </si>
+  <si>
+    <t>Ga returned to the original position</t>
+  </si>
+  <si>
+    <t>GaN surface</t>
+  </si>
+  <si>
+    <t>Single methanol molecule adsorbed</t>
+  </si>
+  <si>
+    <t>Single methanol OH dissociated on the surface</t>
+  </si>
+  <si>
+    <t>Methanol dimer with N..H-O groups</t>
+  </si>
+  <si>
+    <t>Methanol dimer with Ga..O groups</t>
+  </si>
+  <si>
+    <t>Methanol dimer: transformation with O-C cleavage first</t>
+  </si>
+  <si>
+    <t>Methanol dimer: water formation</t>
+  </si>
+  <si>
+    <t>Methanol dimer: carbene formation from CH3</t>
+  </si>
+  <si>
+    <t>09-02</t>
+  </si>
+  <si>
+    <t>0401: stepwise CH diss to Ntop</t>
+  </si>
+  <si>
+    <t>0401: CH diss to Nsur</t>
+  </si>
+  <si>
+    <t>09-03</t>
+  </si>
+  <si>
+    <t>0501: stepwise CH diss to Nsur</t>
+  </si>
+  <si>
+    <t>10-01</t>
+  </si>
+  <si>
+    <t>Methanol dimer: transformation with C-H cleavage first</t>
+  </si>
+  <si>
+    <t>0901: stepwise OH formation</t>
+  </si>
+  <si>
+    <t>Methanol dimer: induce CO cleavage by creating OH bond</t>
+  </si>
+  <si>
+    <t>0701: CH3O-H2O-H2C(Ga)-H</t>
+  </si>
+  <si>
+    <t>The final state is protonated OCH2, OCH3, H, H</t>
+  </si>
+  <si>
+    <t>08-04</t>
+  </si>
+  <si>
+    <t>Methanol dimer: final products</t>
+  </si>
+  <si>
+    <t>0902: CH3O(GaTop)-HO(GaTop)-H2C(NSur)-2H(NSur)</t>
+  </si>
+  <si>
+    <t>0902: CH3O(GaTop)-H2O(GaTop)-H2C(NSur)-H(NSur)</t>
   </si>
 </sst>
 </file>
@@ -319,14 +397,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -334,15 +419,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,17 +456,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,16 +780,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
     <col min="3" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -864,781 +940,900 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-8456.4405038740697</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.00068</v>
-      </c>
+      <c r="A14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="F14" s="6"/>
-      <c r="J14">
-        <v>-8127.3307874485299</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2">
-        <v>-8456.4366114977893</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>-8456.4405038740697</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.00068</v>
       </c>
       <c r="F15" s="6"/>
+      <c r="J15">
+        <v>-8127.3307874485299</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-8456.4366114977893</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-8456.4161526932203</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.015341</v>
+      </c>
+      <c r="E17">
+        <f>($C17-$C$15)*E$2</f>
+        <v>2.4351180849407683E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:H17" si="0">($C17-$C$15)*F$2</f>
+        <v>63.934025320119872</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.66262938213606393</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.1095214559180715</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-6095.4072979975999</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18">
-        <f t="shared" ref="E18:G19" si="0">($C18-$C$14-$C4)*E$2</f>
-        <v>2367.716374441296</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>6216439.3410956226</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>64428.844250796967</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>-6105.6808501074102</v>
+        <v>-6095.4072979975999</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>2367.9794211960775</v>
+        <f t="shared" ref="E19:G20" si="1">($C19-$C$15-$C4)*E$2</f>
+        <v>2367.716374441296</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>6217129.9703503018</v>
+        <f t="shared" si="1"/>
+        <v>6216439.3410956226</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>64436.002117582633</v>
+        <f t="shared" si="1"/>
+        <v>64428.844250796967</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>-6111.4276401083998</v>
+        <v>-6105.6808501074102</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
-        <f>($C20-$C8-$C14)*E2</f>
-        <v>2367.8800473681358</v>
+        <f t="shared" si="1"/>
+        <v>2367.9794211960775</v>
       </c>
       <c r="F20" s="6">
-        <f>($C20-$C8-$C14)*F2</f>
-        <v>6216869.0643650405</v>
+        <f t="shared" si="1"/>
+        <v>6217129.9703503018</v>
       </c>
       <c r="G20">
-        <f>($C20-$C8-$C14)*G2</f>
-        <v>64433.29801799023</v>
+        <f t="shared" si="1"/>
+        <v>64436.002117582633</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>-6089.8163977129998</v>
+        <v>-6111.4276401083998</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21">
-        <f>($C21-$C14-$C7)*E$2</f>
+        <f>($C21-$C8-$C15)*E2</f>
+        <v>2367.8800473681358</v>
+      </c>
+      <c r="F21" s="6">
+        <f>($C21-$C8-$C15)*F2</f>
+        <v>6216869.0643650405</v>
+      </c>
+      <c r="G21">
+        <f>($C21-$C8-$C15)*G2</f>
+        <v>64433.29801799023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-6089.8163977129998</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22">
+        <f>($C22-$C15-$C7)*E$2</f>
         <v>2367.78603261541</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:G21" si="1">($C21-$C14-$C7)*F$2</f>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:G22" si="2">($C22-$C15-$C7)*F$2</f>
         <v>6216622.2286317591</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>64430.739746262232</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="6"/>
-    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-8480.5605712531906</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.01186</v>
-      </c>
-      <c r="E23">
-        <f>($C23-$C$14-$C6)*E$2</f>
-        <v>-3.9104267370383639E-2</v>
-      </c>
-      <c r="F23" s="6">
-        <f>($C23-$C$14-$C6)*F$2</f>
-        <v>-102.66825398094224</v>
-      </c>
-      <c r="G23">
-        <f>($C23-$C$14-$C6)*G$2</f>
-        <v>-1.0640813144447994</v>
-      </c>
-      <c r="H23">
-        <f>H$2/$E23</f>
-        <v>-1165.17598583778</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-8480.5357050093698</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.0103949999999999</v>
-      </c>
-      <c r="E24">
-        <f>($C24-$C$14-$C6)*E$2</f>
-        <v>-1.4238023549658863E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <f>($C24-$C$14-$C6)*F$2</f>
-        <v>-37.38193082962934</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24" si="2">($C24-$C$14-$C6)*G$2</f>
-        <v>-0.38743635497161794</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H45" si="3">H$2/$E24</f>
-        <v>-3200.1178481575535</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-8480.5605712531906</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.01186</v>
+      </c>
+      <c r="E25">
+        <f>($C25-$C$15-$C6)*E$2</f>
+        <v>-3.9104267370383639E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <f>($C25-$C$15-$C6)*F$2</f>
+        <v>-102.66825398094224</v>
+      </c>
+      <c r="G25">
+        <f>($C25-$C$15-$C6)*G$2</f>
+        <v>-1.0640813144447994</v>
+      </c>
+      <c r="H25">
+        <f>H$2/$E25</f>
+        <v>-1165.17598583778</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-8480.5357050093698</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.0103949999999999</v>
+      </c>
+      <c r="E26">
+        <f>($C26-$C$15-$C6)*E$2</f>
+        <v>-1.4238023549658863E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <f>($C26-$C$15-$C6)*F$2</f>
+        <v>-37.38193082962934</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="3">($C26-$C$15-$C6)*G$2</f>
+        <v>-0.38743635497161794</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H55" si="4">H$2/$E26</f>
+        <v>-3200.1178481575535</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-8480.5800536810002</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.0166710000000001</v>
-      </c>
-      <c r="E28">
-        <f>($C28-$C$14-$C$6)*E$2</f>
-        <v>-5.8586695180018467E-2</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" ref="F28:G28" si="4">($C28-$C$14-$C$6)*F$2</f>
-        <v>-153.81936819513848</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>-1.5942251781795558</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>-777.70820053510533</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-8480.5628200137799</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.0100480000000001</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ref="E29:G31" si="5">($C29-$C$14-$C$6)*E$2</f>
-        <v>-4.1353027959665667E-2</v>
-      </c>
-      <c r="F29" s="6">
-        <f>($C29-$C$14-$C$6)*F$2</f>
-        <v>-108.5723749081022</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>-1.1252732069063154</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>-1101.8141967304507</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5">
-        <v>-8480.6079145256808</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.93045900000000004</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>-8.6447539860635914E-2</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="5"/>
-        <v>-226.96801590409959</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>-2.3523573776271007</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>-527.06361982312774</v>
-      </c>
+      <c r="A30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
-        <v>-8480.6276854088701</v>
+        <v>-8480.5800536810002</v>
       </c>
       <c r="D31" s="2">
-        <v>0.99119299999999999</v>
+        <v>1.0166710000000001</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
-        <v>-0.10621842304990281</v>
+        <f>($C31-$C$15-$C$6)*E$2</f>
+        <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F31" s="6">
-        <f>($C31-$C$14-$C$6)*F$2</f>
-        <v>-278.87646971751985</v>
+        <f t="shared" ref="F31:G31" si="5">($C31-$C$15-$C$6)*F$2</f>
+        <v>-153.81936819513848</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>-2.8903505120465711</v>
+        <v>-1.5942251781795558</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>-428.95904472564644</v>
+        <f t="shared" si="4"/>
+        <v>-777.70820053510533</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-8480.5628200137799</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.0100480000000001</v>
+      </c>
+      <c r="E32">
+        <f>($C32-$C$15-$C$6)*E$2</f>
+        <v>-4.1353027959665667E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:G34" si="6">($C32-$C$15-$C$6)*F$2</f>
+        <v>-108.5723749081022</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>-1.1252732069063154</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>-1101.8141967304507</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-8504.7382560918795</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.99794000000000005</v>
+        <v>33</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-8480.6079145256808</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.93045900000000004</v>
       </c>
       <c r="E33">
-        <f>($C33-$C14-2*$C6)*E$2</f>
-        <v>-0.13582599430883135</v>
+        <f>($C33-$C$15-$C$6)*E$2</f>
+        <v>-8.6447539860635914E-2</v>
       </c>
       <c r="F33" s="6">
-        <f>($C33-$C14-2*$C6)*F$2</f>
-        <v>-356.61114805783671</v>
+        <f t="shared" si="6"/>
+        <v>-226.96801590409959</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="6">($C33-$C14-2*$C6)*G$2</f>
-        <v>-3.6960135626879329</v>
+        <f t="shared" si="6"/>
+        <v>-2.3523573776271007</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>-335.4538541433551</v>
-      </c>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="7">
-        <v>-8504.7339165439298</v>
-      </c>
-      <c r="D34" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E34" s="7">
-        <f>($C34-$C$14-2*$C$6)*E$2</f>
-        <v>-0.13148644635911921</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:G34" si="7">($C34-$C14-2*$C6)*F$2</f>
-        <v>-345.21766491586749</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="7"/>
-        <v>-3.5779284482760163</v>
-      </c>
-      <c r="H34" s="7">
-        <f t="shared" si="3"/>
-        <v>-346.52509475620838</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>-527.06361982312774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-8480.6276854088701</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.99119299999999999</v>
+      </c>
+      <c r="E34">
+        <f>($C34-$C$15-$C$6)*E$2</f>
+        <v>-0.10621842304990281</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="6"/>
+        <v>-278.87646971751985</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>-2.8903505120465711</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>-428.95904472564644</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="7">
-        <v>-8504.7308178950698</v>
-      </c>
-      <c r="D36" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E36" s="7">
-        <f>($C36-$C$14-2*$C$6)*E$2</f>
-        <v>-0.12838779749908724</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" ref="F36:G37" si="8">($C36-$C$14-2*$C$6)*F$2</f>
-        <v>-337.08216233385355</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.4936099180052533</v>
-      </c>
-      <c r="H36" s="7">
-        <f t="shared" si="3"/>
-        <v>-354.88850320120821</v>
-      </c>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
-        <v>-8504.7174627214208</v>
+        <v>-8504.7382560918795</v>
       </c>
       <c r="D37" s="2">
-        <v>1.008062</v>
+        <v>0.99794000000000005</v>
       </c>
       <c r="E37">
-        <f>($C37-$C$14-2*$C$6)*E$2</f>
-        <v>-0.11503262385012647</v>
+        <f>($C37-$C15-2*$C6)*E$2</f>
+        <v>-0.13582599430883135</v>
       </c>
       <c r="F37" s="6">
+        <f>($C37-$C15-2*$C6)*F$2</f>
+        <v>-356.61114805783671</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="7">($C37-$C15-2*$C6)*G$2</f>
+        <v>-3.6960135626879329</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>-335.4538541433551</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8504.7339165439298</v>
+      </c>
+      <c r="D38" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E38" s="7">
+        <f>($C38-$C$15-2*$C$6)*E$2</f>
+        <v>-0.13148644635911921</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" ref="F38:G38" si="8">($C38-$C15-2*$C6)*F$2</f>
+        <v>-345.21766491586749</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="8"/>
-        <v>-302.01815391850704</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
-        <v>-3.1301971324792497</v>
-      </c>
-      <c r="H37">
-        <f>H$2/$E37</f>
-        <v>-396.09070678170747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
+        <v>-3.5779284482760163</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="4"/>
+        <v>-346.52509475620838</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C39" s="2">
-        <v>-8504.7727594261196</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.99895800000000001</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:G42" si="9">($C39-$C$14-2*$C$6)*E$2</f>
-        <v>-0.17032932854890248</v>
-      </c>
-      <c r="F39" s="6">
+        <v>-8504.7385010779599</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="I39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="7">
+        <v>-8504.7308178950698</v>
+      </c>
+      <c r="D43" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" ref="E43:G44" si="9">($C43-$C$15-2*$C$6)*E$2</f>
+        <v>-0.12838779749908724</v>
+      </c>
+      <c r="F43" s="9">
         <f t="shared" si="9"/>
-        <v>-447.19965210514346</v>
-      </c>
-      <c r="G39">
+        <v>-337.08216233385355</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="9"/>
-        <v>-4.6348971096715914</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>-267.50151410753318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-8504.7368555111207</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.0108809999999999</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="9"/>
-        <v>-0.13442541354997672</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="9"/>
-        <v>-352.93392327546388</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="9"/>
-        <v>-3.6579018190065549</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>-338.94895377659623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-8504.8265441265103</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.99854799999999999</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.22411402893958154</v>
-      </c>
-      <c r="F42" s="20">
-        <f t="shared" si="9"/>
-        <v>-588.41138298087139</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="9"/>
-        <v>-6.0984533539724044</v>
-      </c>
-      <c r="H42">
-        <f>H$2/$E42</f>
-        <v>-203.30433350976983</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="F43" s="6"/>
+        <v>-3.4936099180052533</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="4"/>
+        <v>-354.88850320120821</v>
+      </c>
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
-        <v>-8504.7493535773501</v>
+        <v>-8504.7174627214208</v>
       </c>
       <c r="D44" s="2">
-        <v>1.0147459999999999</v>
+        <v>1.008062</v>
       </c>
       <c r="E44">
-        <f>($C44-$C$14-2*$C$6)*E$2</f>
-        <v>-0.14692347977943143</v>
+        <f t="shared" si="9"/>
+        <v>-0.11503262385012647</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" ref="F44:G45" si="10">($C44-$C$14-2*$C$6)*F$2</f>
-        <v>-385.74759616089722</v>
+        <f t="shared" si="9"/>
+        <v>-302.01815391850704</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
-        <v>-3.9979915236797732</v>
+        <f t="shared" si="9"/>
+        <v>-3.1301971324792497</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
-        <v>-310.11621391048442</v>
-      </c>
-      <c r="I44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="12">
-        <v>-8504.7160353965301</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1.021455</v>
-      </c>
-      <c r="E45" s="11">
-        <f>($C45-$C$14-2*$C$6)*E$2</f>
-        <v>-0.11360529895937077</v>
-      </c>
-      <c r="F45" s="13">
-        <f t="shared" si="10"/>
-        <v>-298.27071241782795</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" si="10"/>
-        <v>-3.0913576439009423</v>
-      </c>
-      <c r="H45" s="11">
-        <f t="shared" si="3"/>
-        <v>-401.06714828545051</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>56</v>
-      </c>
+        <f>H$2/$E44</f>
+        <v>-396.09070678170747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>71</v>
+      <c r="A46" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="11"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-8504.7727594261196</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.99895800000000001</v>
+      </c>
+      <c r="E47">
+        <f>($C47-$C$15-2*$C$6)*E$2</f>
+        <v>-0.17032932854890248</v>
+      </c>
+      <c r="F47" s="6">
+        <f>($C47-$C$15-2*$C$6)*F$2</f>
+        <v>-447.19965210514346</v>
+      </c>
+      <c r="G47">
+        <f>($C47-$C$15-2*$C$6)*G$2</f>
+        <v>-4.6348971096715914</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>-267.50151410753318</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="15">
-        <v>-8504.8045151052902</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="16">
-        <f>($C48-$C$14-2*$C$6)*E$2</f>
-        <v>-0.20208500771950355</v>
-      </c>
-      <c r="F48" s="17">
-        <f t="shared" ref="F48:G48" si="11">($C48-$C$14-2*$C$6)*F$2</f>
-        <v>-530.57418776755662</v>
-      </c>
-      <c r="G48" s="16">
-        <f t="shared" si="11"/>
-        <v>-5.4990131539100906</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-8504.7368555111207</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.0108809999999999</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:G51" si="10">($C50-$C$15-2*$C$6)*E$2</f>
+        <v>-0.13442541354997672</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="10"/>
+        <v>-352.93392327546388</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="10"/>
+        <v>-3.6579018190065549</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>-338.94895377659623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-8504.8265441265103</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.99854799999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.22411402893958154</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="10"/>
+        <v>-588.41138298087139</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.0984533539724044</v>
+      </c>
+      <c r="H51">
+        <f>H$2/$E51</f>
+        <v>-203.30433350976983</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-8504.7493535773501</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.0147459999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:G55" si="11">($C54-$C$15-2*$C$6)*E$2</f>
+        <v>-0.14692347977943143</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="11"/>
+        <v>-385.74759616089722</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="11"/>
+        <v>-3.9979915236797732</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>-310.11621391048442</v>
+      </c>
+      <c r="I54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-8504.7160353965301</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.021455</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.11360529895937077</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="11"/>
+        <v>-298.27071241782795</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="11"/>
+        <v>-3.0913576439009423</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="4"/>
+        <v>-401.06714828545051</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="10"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="2">
+        <v>-8504.8045908077002</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.000882</v>
+      </c>
+      <c r="E60" s="11">
+        <f>($C60-$C$15-2*$C$6)*E$2</f>
+        <v>-0.20216071012946202</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" ref="F60:G61" si="12">($C60-$C$15-2*$C$6)*F$2</f>
+        <v>-530.77294444490258</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="12"/>
+        <v>-5.5010731214101147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="7">
+        <v>-8504.8245377662297</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <f>($C61-$C$15-2*$C$6)*E$2</f>
+        <v>-0.22210766865900666</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="12"/>
+        <v>-583.14368406422204</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="12"/>
+        <v>-6.0438575098824856</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65"/>
+      <c r="A65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1646,11 +1841,18 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67"/>
+      <c r="A67" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68"/>
+      <c r="A68" s="19">
+        <v>43770</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1945,7 +2147,60 @@
       <c r="A141"/>
       <c r="F141" s="6"/>
     </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="F154" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B5573-0679-F749-8D6B-8F41C0E4EEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A53AA20-F9EF-C84E-B1DD-B0437A3DF93E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>CH2</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>0902: CH3O(GaTop)-H2O(GaTop)-H2C(NSur)-H(NSur)</t>
+  </si>
+  <si>
+    <t>11-01</t>
   </si>
 </sst>
 </file>
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1171,7 @@
         <v>-0.38743635497161794</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H55" si="4">H$2/$E26</f>
+        <f t="shared" ref="H26:H57" si="4">H$2/$E26</f>
         <v>-3200.1178481575535</v>
       </c>
       <c r="I26" t="s">
@@ -1657,7 +1660,7 @@
         <v>1.0147459999999999</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:G55" si="11">($C54-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E54:G57" si="11">($C54-$C$15-2*$C$6)*E$2</f>
         <v>-0.14692347977943143</v>
       </c>
       <c r="F54" s="6">
@@ -1717,21 +1720,41 @@
         <v>69</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="11">
+        <v>-8504.8485304333699</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.99722200000000005</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.24610033579919843</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="11"/>
+        <v>-646.13643164079554</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="11"/>
+        <v>-6.6967312370836138</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="4"/>
+        <v>-185.14136982294721</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
@@ -1766,7 +1789,7 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" ref="F60:G61" si="12">($C60-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F60:G68" si="12">($C60-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G60" s="11">
@@ -1811,95 +1834,133 @@
         <v>92</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="F62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="F63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B65" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="19">
-        <v>43770</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="11">
+        <v>-8504.84848926423</v>
+      </c>
+      <c r="D68" s="11">
+        <v>7</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" ref="E62:E68" si="13">($C68-$C$15-2*$C$6)*E$2</f>
+        <v>-0.2460591666593217</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="12"/>
+        <v>-646.02834206404918</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="12"/>
+        <v>-6.6956109677263163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="F80" s="6"/>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A53AA20-F9EF-C84E-B1DD-B0437A3DF93E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229A1EB-1D7B-CA4B-9360-9DC239A8E72A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>CH2</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Methanol dimer: carbene formation from CH3</t>
   </si>
   <si>
-    <t>09-02</t>
-  </si>
-  <si>
     <t>0401: stepwise CH diss to Ntop</t>
   </si>
   <si>
@@ -344,13 +341,28 @@
   </si>
   <si>
     <t>11-01</t>
+  </si>
+  <si>
+    <t>09-02-02</t>
+  </si>
+  <si>
+    <t>09-02-03</t>
+  </si>
+  <si>
+    <t>040202: H relaxed on Nsur</t>
+  </si>
+  <si>
+    <t>dissociates into H..GaTop + H..NSur + CH2O</t>
+  </si>
+  <si>
+    <t>dissociates into 0304</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +439,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -448,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,6 +488,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,19 +1179,19 @@
         <v>1.0103949999999999</v>
       </c>
       <c r="E26">
-        <f>($C26-$C$15-$C6)*E$2</f>
+        <f>($C26-$C$15-$C$6)*E$2</f>
         <v>-1.4238023549658863E-2</v>
       </c>
       <c r="F26" s="6">
-        <f>($C26-$C$15-$C6)*F$2</f>
+        <f>($C26-$C$15-$C$6)*F$2</f>
         <v>-37.38193082962934</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="3">($C26-$C$15-$C6)*G$2</f>
+        <f>($C26-$C$15-$C$6)*G$2</f>
         <v>-0.38743635497161794</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H57" si="4">H$2/$E26</f>
+        <f t="shared" ref="H26:H57" si="3">H$2/$E26</f>
         <v>-3200.1178481575535</v>
       </c>
       <c r="I26" t="s">
@@ -1185,9 +1205,31 @@
       <c r="B27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="2">
+        <v>-8480.5884689371596</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.99493200000000004</v>
+      </c>
+      <c r="E27">
+        <f>($C27-$C$15-$C$6)*E$2</f>
+        <v>-6.7001951339442201E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <f>($C27-$C$15-$C$6)*F$2</f>
+        <v>-175.91362324170549</v>
+      </c>
+      <c r="G27">
+        <f>($C27-$C$15-$C$6)*G$2</f>
+        <v>-1.8232159619908177</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-680.03024349126679</v>
+      </c>
+      <c r="I27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1196,9 +1238,31 @@
       <c r="B28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="2">
+        <v>-8480.6272754111706</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.012985</v>
+      </c>
+      <c r="E28">
+        <f>($C28-$C$15-$C$6)*E$2</f>
+        <v>-0.10580842535036794</v>
+      </c>
+      <c r="F28" s="6">
+        <f>($C28-$C$15-$C$6)*F$2</f>
+        <v>-277.80002075739105</v>
+      </c>
+      <c r="G28">
+        <f>($C28-$C$15-$C$6)*G$2</f>
+        <v>-2.8791939063772158</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-430.62122069083841</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
@@ -1232,15 +1296,15 @@
         <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" ref="F31:G31" si="5">($C31-$C$15-$C$6)*F$2</f>
+        <f t="shared" ref="F31:G31" si="4">($C31-$C$15-$C$6)*F$2</f>
         <v>-153.81936819513848</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.5942251781795558</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-777.70820053510533</v>
       </c>
     </row>
@@ -1262,15 +1326,15 @@
         <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ref="F32:G34" si="6">($C32-$C$15-$C$6)*F$2</f>
+        <f t="shared" ref="F32:G34" si="5">($C32-$C$15-$C$6)*F$2</f>
         <v>-108.5723749081022</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1.1252732069063154</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1101.8141967304507</v>
       </c>
       <c r="I32" t="s">
@@ -1295,15 +1359,15 @@
         <v>-8.6447539860635914E-2</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-226.96801590409959</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2.3523573776271007</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-527.06361982312774</v>
       </c>
     </row>
@@ -1325,15 +1389,15 @@
         <v>-0.10621842304990281</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-278.87646971751985</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2.8903505120465711</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-428.95904472564644</v>
       </c>
     </row>
@@ -1372,11 +1436,11 @@
         <v>-356.61114805783671</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="7">($C37-$C15-2*$C6)*G$2</f>
+        <f t="shared" ref="G37" si="6">($C37-$C15-2*$C6)*G$2</f>
         <v>-3.6960135626879329</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-335.4538541433551</v>
       </c>
       <c r="I37" t="s">
@@ -1401,15 +1465,15 @@
         <v>-0.13148644635911921</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" ref="F38:G38" si="8">($C38-$C15-2*$C6)*F$2</f>
+        <f t="shared" ref="F38:G38" si="7">($C38-$C15-2*$C6)*F$2</f>
         <v>-345.21766491586749</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3.5779284482760163</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-346.52509475620838</v>
       </c>
       <c r="I38" s="7" t="s">
@@ -1467,19 +1531,19 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43:G44" si="9">($C43-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E43:G44" si="8">($C43-$C$15-2*$C$6)*E$2</f>
         <v>-0.12838779749908724</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-337.08216233385355</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-3.4936099180052533</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-354.88850320120821</v>
       </c>
       <c r="I43" t="s">
@@ -1500,15 +1564,15 @@
         <v>1.008062</v>
       </c>
       <c r="E44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.11503262385012647</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-302.01815391850704</v>
       </c>
       <c r="G44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-3.1301971324792497</v>
       </c>
       <c r="H44">
@@ -1555,7 +1619,7 @@
         <v>-4.6348971096715914</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-267.50151410753318</v>
       </c>
     </row>
@@ -1584,19 +1648,19 @@
         <v>1.0108809999999999</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:G51" si="10">($C50-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E50:G51" si="9">($C50-$C$15-2*$C$6)*E$2</f>
         <v>-0.13442541354997672</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-352.93392327546388</v>
       </c>
       <c r="G50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-3.6579018190065549</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-338.94895377659623</v>
       </c>
     </row>
@@ -1614,15 +1678,15 @@
         <v>0.99854799999999999</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.22411402893958154</v>
       </c>
       <c r="F51" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-588.41138298087139</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-6.0984533539724044</v>
       </c>
       <c r="H51">
@@ -1660,19 +1724,19 @@
         <v>1.0147459999999999</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:G57" si="11">($C54-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E54:G57" si="10">($C54-$C$15-2*$C$6)*E$2</f>
         <v>-0.14692347977943143</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-385.74759616089722</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-3.9979915236797732</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-310.11621391048442</v>
       </c>
       <c r="I54" t="s">
@@ -1684,7 +1748,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2">
         <v>-8504.7160353965301</v>
@@ -1693,19 +1757,19 @@
         <v>1.021455</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.11360529895937077</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-298.27071241782795</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-3.0913576439009423</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-401.06714828545051</v>
       </c>
       <c r="I55" s="18" t="s">
@@ -1728,10 +1792,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="11">
         <v>-8504.8485304333699</v>
@@ -1740,19 +1804,19 @@
         <v>0.99722200000000005</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.24610033579919843</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-646.13643164079554</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-6.6967312370836138</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-185.14136982294721</v>
       </c>
     </row>
@@ -1764,7 +1828,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1776,7 +1840,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2">
         <v>-8504.8045908077002</v>
@@ -1789,20 +1853,20 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" ref="F60:G68" si="12">($C60-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F60:G69" si="11">($C60-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G60" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.5010731214101147</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="C61" s="7">
         <v>-8504.8245377662297</v>
@@ -1815,32 +1879,51 @@
         <v>-0.22210766865900666</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-583.14368406422204</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.0438575098824856</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-8504.8412831110509</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1.7963629999999999</v>
+      </c>
+      <c r="E62" s="7">
+        <f>($C62-$C$15-2*$C$6)*E$2</f>
+        <v>-0.23885301348018118</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="11"/>
+        <v>-627.10858689221573</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="11"/>
+        <v>-6.4995215518494733</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -1849,9 +1932,6 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -1860,12 +1940,10 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="16" t="s">
         <v>95</v>
       </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
@@ -1873,7 +1951,12 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66"/>
+      <c r="A66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
@@ -1881,44 +1964,48 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="A67"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="11">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="11">
         <v>-8504.84848926423</v>
       </c>
-      <c r="D68" s="11">
-        <v>7</v>
-      </c>
-      <c r="E68" s="11">
-        <f t="shared" ref="E62:E68" si="13">($C68-$C$15-2*$C$6)*E$2</f>
+      <c r="D69" s="11">
+        <v>1.0097529999999999</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" ref="E69" si="12">($C69-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
-      <c r="F68" s="12">
-        <f t="shared" si="12"/>
+      <c r="F69" s="12">
+        <f t="shared" si="11"/>
         <v>-646.02834206404918</v>
       </c>
-      <c r="G68" s="11">
-        <f t="shared" si="12"/>
+      <c r="G69" s="11">
+        <f t="shared" si="11"/>
         <v>-6.6956109677263163</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70"/>
@@ -2259,6 +2346,10 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="F155" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229A1EB-1D7B-CA4B-9360-9DC239A8E72A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B62F3C-71AC-7A42-8899-3A9DBC517FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
   <si>
     <t>CH2</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>dissociates into 0304</t>
+  </si>
+  <si>
+    <t>09-02-04</t>
+  </si>
+  <si>
+    <t>0402: intermediate to stabilize formaldehyde</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,7 +1860,7 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" ref="F60:G69" si="11">($C60-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F60:G70" si="11">($C60-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G60" s="11">
@@ -1890,7 +1897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>104</v>
       </c>
@@ -1907,7 +1914,7 @@
         <f>($C62-$C$15-2*$C$6)*E$2</f>
         <v>-0.23885301348018118</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="7">
         <f t="shared" si="11"/>
         <v>-627.10858689221573</v>
       </c>
@@ -1917,32 +1924,46 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-8504.5293797212998</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="7">
+        <f>($C63-$C$15-2*$C$6)*E$2</f>
+        <v>7.3050376270842321E-2</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="11"/>
+        <v>191.79376289909652</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9878019876121384</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B64" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -1951,12 +1972,10 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
+      <c r="A66" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
@@ -1964,7 +1983,12 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67"/>
+      <c r="A67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
@@ -1972,44 +1996,48 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="A68"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C70" s="11">
         <v>-8504.84848926423</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>1.0097529999999999</v>
       </c>
-      <c r="E69" s="11">
-        <f t="shared" ref="E69" si="12">($C69-$C$15-2*$C$6)*E$2</f>
+      <c r="E70" s="11">
+        <f t="shared" ref="E70" si="12">($C70-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <f t="shared" si="11"/>
         <v>-646.02834206404918</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <f t="shared" si="11"/>
         <v>-6.6956109677263163</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -2350,6 +2378,10 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="F156" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B62F3C-71AC-7A42-8899-3A9DBC517FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947332B0-743A-4C41-8183-653ECDDE9CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>CH2</t>
   </si>
@@ -362,12 +362,33 @@
   </si>
   <si>
     <t>0402: intermediate to stabilize formaldehyde</t>
+  </si>
+  <si>
+    <t>To export</t>
+  </si>
+  <si>
+    <t>Methanol full coverage: 4 molecules</t>
+  </si>
+  <si>
+    <t>20-01</t>
+  </si>
+  <si>
+    <t>4 CH3OH molecules dissociated as in 0401</t>
+  </si>
+  <si>
+    <t>Full coverage plus one more</t>
+  </si>
+  <si>
+    <t>21-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -448,7 +469,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFC00000"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,6 +516,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,7 +1884,7 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" ref="F60:G70" si="11">($C60-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F60:G73" si="11">($C60-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G60" s="11">
@@ -1897,24 +1921,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>-8504.8412831110509</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="23">
         <v>1.7963629999999999</v>
       </c>
       <c r="E62" s="7">
         <f>($C62-$C$15-2*$C$6)*E$2</f>
         <v>-0.23885301348018118</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="9">
         <f t="shared" si="11"/>
         <v>-627.10858689221573</v>
       </c>
@@ -1922,7 +1946,6 @@
         <f t="shared" si="11"/>
         <v>-6.4995215518494733</v>
       </c>
-      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
@@ -1932,22 +1955,23 @@
         <v>109</v>
       </c>
       <c r="C63" s="2">
-        <v>-8504.5293797212998</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="7">
+        <v>-8504.8041312333007</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.0101150000000001</v>
+      </c>
+      <c r="E63" s="2">
         <f>($C63-$C$15-2*$C$6)*E$2</f>
-        <v>7.3050376270842321E-2</v>
-      </c>
-      <c r="F63" s="7">
+        <v>-0.20170113573003334</v>
+      </c>
+      <c r="F63" s="15">
         <f t="shared" si="11"/>
-        <v>191.79376289909652</v>
-      </c>
-      <c r="G63" s="7">
+        <v>-529.56633185920259</v>
+      </c>
+      <c r="G63" s="2">
         <f t="shared" si="11"/>
-        <v>1.9878019876121384</v>
-      </c>
-      <c r="H63" s="7"/>
+        <v>-5.4885674650223519</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -1963,7 +1987,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -1971,7 +1995,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>95</v>
       </c>
@@ -1982,7 +2006,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>92</v>
       </c>
@@ -1995,7 +2019,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2003,8 +2027,8 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
         <v>99</v>
       </c>
       <c r="D69" s="7"/>
@@ -2012,8 +2036,11 @@
       <c r="F69" s="9"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>102</v>
       </c>
@@ -2027,7 +2054,7 @@
         <v>1.0097529999999999</v>
       </c>
       <c r="E70" s="11">
-        <f t="shared" ref="E70" si="12">($C70-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E70:E73" si="12">($C70-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
       <c r="F70" s="12">
@@ -2038,44 +2065,125 @@
         <f t="shared" si="11"/>
         <v>-6.6956109677263163</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="20">
+        <f>C15+C6+C6</f>
+        <v>-8504.6024300975696</v>
+      </c>
+      <c r="J70" s="20">
+        <f>F2</f>
+        <v>2625.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="I71" s="21">
+        <f>C37</f>
+        <v>-8504.7382560918795</v>
+      </c>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="I72" s="21">
+        <f>C61</f>
+        <v>-8504.8245377662297</v>
+      </c>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="2">
+        <v>-8553.1986735656792</v>
+      </c>
+      <c r="E73" s="11">
+        <f>($C73-$C$15-4*$C$6)*E$2</f>
+        <v>-0.43431724460751298</v>
+      </c>
+      <c r="F73" s="12">
+        <f>($C73-$C$15-4*$C$6)*F$2</f>
+        <v>-1140.2999257170254</v>
+      </c>
+      <c r="G73" s="11">
+        <f>($C73-$C$15-4*$C$6)*G$2</f>
+        <v>-11.818374198157798</v>
+      </c>
+      <c r="I73" s="21">
+        <f>C70</f>
+        <v>-8504.84848926423</v>
+      </c>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="2">
+        <v>-8577.3080842830095</v>
+      </c>
+      <c r="E76" s="11">
+        <f>($C76-$C$15-5*$C$6)*E$2</f>
+        <v>-0.46276485018734093</v>
+      </c>
+      <c r="F76" s="12">
+        <f>($C76-$C$15-5*$C$6)*F$2</f>
+        <v>-1214.9891141668636</v>
+      </c>
+      <c r="G76" s="11">
+        <f>($C76-$C$15-5*$C$6)*G$2</f>
+        <v>-12.592472974935204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E77" s="11">
+        <f>($C76-$C$73-$C$6)*E$2</f>
+        <v>-2.8447605579820845E-2</v>
+      </c>
+      <c r="F77" s="12">
+        <f>($C76-$C$73-$C$6)*F$2</f>
+        <v>-74.689188449819625</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" ref="F77:G77" si="13">($C76-$C$73-$C$6)*G$2</f>
+        <v>-0.77409877677721095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="F80" s="6"/>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947332B0-743A-4C41-8183-653ECDDE9CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38A1BD8-A7B3-274B-A000-6E7D9A65ED11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
   <si>
     <t>CH2</t>
   </si>
@@ -244,12 +244,6 @@
     <t>Continue the 07-02 logic</t>
   </si>
   <si>
-    <t>02-04</t>
-  </si>
-  <si>
-    <t>same, attempt 2</t>
-  </si>
-  <si>
     <t>0401: CH3O-H2O-H3C</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>Single methanol molecule adsorbed</t>
   </si>
   <si>
-    <t>Single methanol OH dissociated on the surface</t>
-  </si>
-  <si>
     <t>Methanol dimer with N..H-O groups</t>
   </si>
   <si>
@@ -380,6 +371,45 @@
   </si>
   <si>
     <t>21-01</t>
+  </si>
+  <si>
+    <t>02-04-01</t>
+  </si>
+  <si>
+    <t>same, attempt 2, UKS</t>
+  </si>
+  <si>
+    <t>02-04-02</t>
+  </si>
+  <si>
+    <t>restart 02-04-01 with RKS</t>
+  </si>
+  <si>
+    <t>09-02-05</t>
+  </si>
+  <si>
+    <t>1. Dimer 0401</t>
+  </si>
+  <si>
+    <t>3. N..CH2-OH 090202</t>
+  </si>
+  <si>
+    <t>4. Final 1101</t>
+  </si>
+  <si>
+    <t>2. Formaldehyde 090205</t>
+  </si>
+  <si>
+    <t>Energy conversion</t>
+  </si>
+  <si>
+    <t>0. zero of energy</t>
+  </si>
+  <si>
+    <t>Single methanol, OH dissociated on the surface</t>
+  </si>
+  <si>
+    <t>5. Water desorbed</t>
   </si>
 </sst>
 </file>
@@ -834,17 +864,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="10" width="17.5" customWidth="1"/>
+    <col min="3" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,7 +1028,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1032,7 +1065,18 @@
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="E16">
+        <f>($C16-$C$15)*E$2</f>
+        <v>3.89237628041883E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <f>($C16-$C$15)*F$2</f>
+        <v>10.219433924239638</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="F16:H17" si="0">($C16-$C$15)*G$2</f>
+        <v>0.10591695350156854</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1052,7 +1096,7 @@
         <v>2.4351180849407683E-2</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" ref="F17:H17" si="0">($C17-$C$15)*F$2</f>
+        <f t="shared" si="0"/>
         <v>63.934025320119872</v>
       </c>
       <c r="G17">
@@ -1160,7 +1204,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1222,7 +1266,7 @@
         <v>-0.38743635497161794</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H57" si="3">H$2/$E26</f>
+        <f t="shared" ref="H26:H58" si="3">H$2/$E26</f>
         <v>-3200.1178481575535</v>
       </c>
       <c r="I26" t="s">
@@ -1233,7 +1277,7 @@
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2">
@@ -1259,15 +1303,15 @@
         <v>-680.03024349126679</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C28" s="2">
         <v>-8480.6272754111706</v>
@@ -1292,898 +1336,950 @@
         <v>-430.62122069083841</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="5">
+        <v>-8474.3235338111008</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>-8480.5800536810002</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>1.0166710000000001</v>
       </c>
-      <c r="E31">
-        <f>($C31-$C$15-$C$6)*E$2</f>
+      <c r="E32">
+        <f>($C32-$C$15-$C$6)*E$2</f>
         <v>-5.8586695180018467E-2</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" ref="F31:G31" si="4">($C31-$C$15-$C$6)*F$2</f>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:G32" si="4">($C32-$C$15-$C$6)*F$2</f>
         <v>-153.81936819513848</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="4"/>
         <v>-1.5942251781795558</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f t="shared" si="3"/>
         <v>-777.70820053510533</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>-8480.5628200137799</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>1.0100480000000001</v>
       </c>
-      <c r="E32">
-        <f>($C32-$C$15-$C$6)*E$2</f>
+      <c r="E33">
+        <f>($C33-$C$15-$C$6)*E$2</f>
         <v>-4.1353027959665667E-2</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" ref="F32:G34" si="5">($C32-$C$15-$C$6)*F$2</f>
+      <c r="F33" s="6">
+        <f t="shared" ref="F33:G35" si="5">($C33-$C$15-$C$6)*F$2</f>
         <v>-108.5723749081022</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <f t="shared" si="5"/>
         <v>-1.1252732069063154</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <f t="shared" si="3"/>
         <v>-1101.8141967304507</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>-8480.6079145256808</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>0.93045900000000004</v>
       </c>
-      <c r="E33">
-        <f>($C33-$C$15-$C$6)*E$2</f>
+      <c r="E34">
+        <f>($C34-$C$15-$C$6)*E$2</f>
         <v>-8.6447539860635914E-2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="5"/>
         <v>-226.96801590409959</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="5"/>
         <v>-2.3523573776271007</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <f t="shared" si="3"/>
         <v>-527.06361982312774</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>-8480.6276854088701</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>0.99119299999999999</v>
       </c>
-      <c r="E34">
-        <f>($C34-$C$15-$C$6)*E$2</f>
+      <c r="E35">
+        <f>($C35-$C$15-$C$6)*E$2</f>
         <v>-0.10621842304990281</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="5"/>
         <v>-278.87646971751985</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f t="shared" si="5"/>
         <v>-2.8903505120465711</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <f t="shared" si="3"/>
         <v>-428.95904472564644</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="6"/>
-    </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>-8504.7382560918795</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>0.99794000000000005</v>
       </c>
-      <c r="E37">
-        <f>($C37-$C15-2*$C6)*E$2</f>
+      <c r="E38">
+        <f>($C38-$C15-2*$C6)*E$2</f>
         <v>-0.13582599430883135</v>
       </c>
-      <c r="F37" s="6">
-        <f>($C37-$C15-2*$C6)*F$2</f>
+      <c r="F38" s="6">
+        <f>($C38-$C15-2*$C6)*F$2</f>
         <v>-356.61114805783671</v>
       </c>
-      <c r="G37">
-        <f t="shared" ref="G37" si="6">($C37-$C15-2*$C6)*G$2</f>
+      <c r="G38">
+        <f t="shared" ref="G38" si="6">($C38-$C15-2*$C6)*G$2</f>
         <v>-3.6960135626879329</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <f t="shared" si="3"/>
         <v>-335.4538541433551</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>-8504.7339165439298</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E38" s="7">
-        <f>($C38-$C$15-2*$C$6)*E$2</f>
+      <c r="E39" s="7">
+        <f>($C39-$C$15-2*$C$6)*E$2</f>
         <v>-0.13148644635911921</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" ref="F38:G38" si="7">($C38-$C15-2*$C6)*F$2</f>
+      <c r="F39" s="9">
+        <f t="shared" ref="F39:G39" si="7">($C39-$C15-2*$C6)*F$2</f>
         <v>-345.21766491586749</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="7">
         <f t="shared" si="7"/>
         <v>-3.5779284482760163</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="7">
         <f t="shared" si="3"/>
         <v>-346.52509475620838</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-8504.7385010779599</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="I39" s="2" t="s">
-        <v>79</v>
+      <c r="I39" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-8504.7385010779599</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="I40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="6"/>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>-8504.7308178950698</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E43" s="7">
-        <f t="shared" ref="E43:G44" si="8">($C43-$C$15-2*$C$6)*E$2</f>
+      <c r="E44" s="7">
+        <f t="shared" ref="E44:G45" si="8">($C44-$C$15-2*$C$6)*E$2</f>
         <v>-0.12838779749908724</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <f t="shared" si="8"/>
         <v>-337.08216233385355</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="7">
         <f t="shared" si="8"/>
         <v>-3.4936099180052533</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H44" s="7">
         <f t="shared" si="3"/>
         <v>-354.88850320120821</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>-8504.7174627214208</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>1.008062</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <f t="shared" si="8"/>
         <v>-0.11503262385012647</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="8"/>
         <v>-302.01815391850704</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <f t="shared" si="8"/>
         <v>-3.1301971324792497</v>
       </c>
-      <c r="H44">
-        <f>H$2/$E44</f>
+      <c r="H45">
+        <f>H$2/$E45</f>
         <v>-396.09070678170747</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="F45" s="6"/>
-    </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>-8504.7727594261196</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>0.99895800000000001</v>
       </c>
-      <c r="E47">
-        <f>($C47-$C$15-2*$C$6)*E$2</f>
+      <c r="E48">
+        <f>($C48-$C$15-2*$C$6)*E$2</f>
         <v>-0.17032932854890248</v>
       </c>
-      <c r="F47" s="6">
-        <f>($C47-$C$15-2*$C$6)*F$2</f>
+      <c r="F48" s="6">
+        <f>($C48-$C$15-2*$C$6)*F$2</f>
         <v>-447.19965210514346</v>
       </c>
-      <c r="G47">
-        <f>($C47-$C$15-2*$C$6)*G$2</f>
+      <c r="G48">
+        <f>($C48-$C$15-2*$C$6)*G$2</f>
         <v>-4.6348971096715914</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <f t="shared" si="3"/>
         <v>-267.50151410753318</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>-8504.7368555111207</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>1.0108809999999999</v>
       </c>
-      <c r="E50">
-        <f t="shared" ref="E50:G51" si="9">($C50-$C$15-2*$C$6)*E$2</f>
+      <c r="E51">
+        <f t="shared" ref="E51:G52" si="9">($C51-$C$15-2*$C$6)*E$2</f>
         <v>-0.13442541354997672</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <f t="shared" si="9"/>
         <v>-352.93392327546388</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <f t="shared" si="9"/>
         <v>-3.6579018190065549</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <f t="shared" si="3"/>
         <v>-338.94895377659623</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2">
         <v>-8504.8265441265103</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>0.99854799999999999</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <f t="shared" si="9"/>
         <v>-0.22411402893958154</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="9"/>
         <v>-588.41138298087139</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G52" s="2">
         <f t="shared" si="9"/>
         <v>-6.0984533539724044</v>
       </c>
-      <c r="H51">
-        <f>H$2/$E51</f>
+      <c r="H52">
+        <f>H$2/$E52</f>
         <v>-203.30433350976983</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="F52" s="6"/>
+      <c r="I52" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>-8504.7493535773501</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D55" s="2">
         <v>1.0147459999999999</v>
       </c>
-      <c r="E54">
-        <f t="shared" ref="E54:G57" si="10">($C54-$C$15-2*$C$6)*E$2</f>
+      <c r="E55">
+        <f t="shared" ref="E55:G58" si="10">($C55-$C$15-2*$C$6)*E$2</f>
         <v>-0.14692347977943143</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <f t="shared" si="10"/>
         <v>-385.74759616089722</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <f t="shared" si="10"/>
         <v>-3.9979915236797732</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <f t="shared" si="3"/>
         <v>-310.11621391048442</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B56" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2">
         <v>-8504.7160353965301</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D56" s="2">
         <v>1.021455</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <f t="shared" si="10"/>
         <v>-0.11360529895937077</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <f t="shared" si="10"/>
         <v>-298.27071241782795</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <f t="shared" si="10"/>
         <v>-3.0913576439009423</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <f t="shared" si="3"/>
         <v>-401.06714828545051</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I56" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="C58" s="11">
         <v>-8504.8485304333699</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D58" s="2">
         <v>0.99722200000000005</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <f t="shared" si="10"/>
         <v>-0.24610033579919843</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <f t="shared" si="10"/>
         <v>-646.13643164079554</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <f t="shared" si="10"/>
         <v>-6.6967312370836138</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <f t="shared" si="3"/>
         <v>-185.14136982294721</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="6"/>
-    </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="10"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2">
         <v>-8504.8045908077002</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D61" s="2">
         <v>1.000882</v>
       </c>
-      <c r="E60" s="11">
-        <f>($C60-$C$15-2*$C$6)*E$2</f>
+      <c r="E61" s="11">
+        <f>($C61-$C$15-2*$C$6)*E$2</f>
         <v>-0.20216071012946202</v>
       </c>
-      <c r="F60" s="12">
-        <f t="shared" ref="F60:G73" si="11">($C60-$C$15-2*$C$6)*F$2</f>
+      <c r="F61" s="12">
+        <f t="shared" ref="F61:G72" si="11">($C61-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <f t="shared" si="11"/>
         <v>-5.5010731214101147</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="7">
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="7">
         <v>-8504.8245377662297</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>0</v>
       </c>
-      <c r="E61" s="7">
-        <f>($C61-$C$15-2*$C$6)*E$2</f>
+      <c r="E62" s="7">
+        <f>($C62-$C$15-2*$C$6)*E$2</f>
         <v>-0.22210766865900666</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <f t="shared" si="11"/>
         <v>-583.14368406422204</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <f t="shared" si="11"/>
         <v>-6.0438575098824856</v>
       </c>
-      <c r="I61" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="7">
+      <c r="I62" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="7">
         <v>-8504.8412831110509</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D63" s="23">
         <v>1.7963629999999999</v>
       </c>
-      <c r="E62" s="7">
-        <f>($C62-$C$15-2*$C$6)*E$2</f>
+      <c r="E63" s="7">
+        <f>($C63-$C$15-2*$C$6)*E$2</f>
         <v>-0.23885301348018118</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <f t="shared" si="11"/>
         <v>-627.10858689221573</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="7">
         <f t="shared" si="11"/>
         <v>-6.4995215518494733</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="2">
+    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="2">
         <v>-8504.8041312333007</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>1.0101150000000001</v>
       </c>
-      <c r="E63" s="2">
-        <f>($C63-$C$15-2*$C$6)*E$2</f>
+      <c r="E64" s="2">
+        <f>($C64-$C$15-2*$C$6)*E$2</f>
         <v>-0.20170113573003334</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <f t="shared" si="11"/>
         <v>-529.56633185920259</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <f t="shared" si="11"/>
         <v>-5.4885674650223519</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>95</v>
+    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-8504.7545891209102</v>
+      </c>
+      <c r="E65" s="2">
+        <f>($C65-$C$15-2*$C$6)*E$2</f>
+        <v>-0.15215902333947895</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="11"/>
+        <v>-399.49351577780197</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="11"/>
+        <v>-4.1404579205167513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>94</v>
-      </c>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>99</v>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="11">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+      <c r="K71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="11">
         <v>-8504.84848926423</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D72" s="11">
         <v>1.0097529999999999</v>
       </c>
-      <c r="E70" s="11">
-        <f t="shared" ref="E70:E73" si="12">($C70-$C$15-2*$C$6)*E$2</f>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72" si="12">($C72-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F72" s="12">
         <f t="shared" si="11"/>
         <v>-646.02834206404918</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G72" s="11">
         <f t="shared" si="11"/>
         <v>-6.6956109677263163</v>
       </c>
-      <c r="I70" s="20">
-        <f>C15+C6+C6</f>
-        <v>-8504.6024300975696</v>
-      </c>
-      <c r="J70" s="20">
+      <c r="J72" s="2">
+        <v>-8480.6276854088701</v>
+      </c>
+      <c r="K72" s="20">
         <f>F2</f>
         <v>2625.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="11"/>
-      <c r="I71" s="21">
-        <f>C37</f>
+      <c r="L72" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="J73" s="21">
+        <f>C38</f>
         <v>-8504.7382560918795</v>
       </c>
-      <c r="J71" s="21"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="I72" s="21">
-        <f>C61</f>
-        <v>-8504.8245377662297</v>
-      </c>
-      <c r="J72" s="21"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="2">
-        <v>-8553.1986735656792</v>
-      </c>
-      <c r="E73" s="11">
-        <f>($C73-$C$15-4*$C$6)*E$2</f>
-        <v>-0.43431724460751298</v>
-      </c>
-      <c r="F73" s="12">
-        <f>($C73-$C$15-4*$C$6)*F$2</f>
-        <v>-1140.2999257170254</v>
-      </c>
-      <c r="G73" s="11">
-        <f>($C73-$C$15-4*$C$6)*G$2</f>
-        <v>-11.818374198157798</v>
-      </c>
-      <c r="I73" s="21">
-        <f>C70</f>
-        <v>-8504.84848926423</v>
-      </c>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74"/>
+      <c r="K73" s="21"/>
+      <c r="L73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="J74">
+        <f>C65</f>
+        <v>-8504.7545891209102</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2">
+        <v>-8553.1986735656792</v>
+      </c>
+      <c r="E75" s="11">
+        <f>($C75-$C$15-4*$C$6)*E$2</f>
+        <v>-0.43431724460751298</v>
+      </c>
+      <c r="F75" s="12">
+        <f>($C75-$C$15-4*$C$6)*F$2</f>
+        <v>-1140.2999257170254</v>
+      </c>
+      <c r="G75" s="11">
+        <f>($C75-$C$15-4*$C$6)*G$2</f>
+        <v>-11.818374198157798</v>
+      </c>
+      <c r="J75" s="21">
+        <f>C62</f>
+        <v>-8504.8245377662297</v>
+      </c>
+      <c r="K75" s="21"/>
+      <c r="L75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="J76" s="21">
+        <f>C72</f>
+        <v>-8504.84848926423</v>
+      </c>
+      <c r="L76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="L77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2">
         <v>-8577.3080842830095</v>
       </c>
-      <c r="E76" s="11">
-        <f>($C76-$C$15-5*$C$6)*E$2</f>
+      <c r="E78" s="11">
+        <f>($C78-$C$15-5*$C$6)*E$2</f>
         <v>-0.46276485018734093</v>
       </c>
-      <c r="F76" s="12">
-        <f>($C76-$C$15-5*$C$6)*F$2</f>
+      <c r="F78" s="12">
+        <f>($C78-$C$15-5*$C$6)*F$2</f>
         <v>-1214.9891141668636</v>
       </c>
-      <c r="G76" s="11">
-        <f>($C76-$C$15-5*$C$6)*G$2</f>
+      <c r="G78" s="11">
+        <f>($C78-$C$15-5*$C$6)*G$2</f>
         <v>-12.592472974935204</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-      <c r="E77" s="11">
-        <f>($C76-$C$73-$C$6)*E$2</f>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="E79" s="11">
+        <f>($C78-$C$75-$C$6)*E$2</f>
         <v>-2.8447605579820845E-2</v>
       </c>
-      <c r="F77" s="12">
-        <f>($C76-$C$73-$C$6)*F$2</f>
+      <c r="F79" s="12">
+        <f>($C78-$C$75-$C$6)*F$2</f>
         <v>-74.689188449819625</v>
       </c>
-      <c r="G77" s="11">
-        <f t="shared" ref="F77:G77" si="13">($C76-$C$73-$C$6)*G$2</f>
+      <c r="G79" s="11">
+        <f>($C78-$C$75-$C$6)*G$2</f>
         <v>-0.77409877677721095</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="F80" s="6"/>
     </row>
@@ -2490,6 +2586,14 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="F158" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38A1BD8-A7B3-274B-A000-6E7D9A65ED11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1776B3-E5A7-5F4C-AA0F-2CF603E1936B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>CH2</t>
   </si>
@@ -394,9 +394,6 @@
     <t>3. N..CH2-OH 090202</t>
   </si>
   <si>
-    <t>4. Final 1101</t>
-  </si>
-  <si>
     <t>2. Formaldehyde 090205</t>
   </si>
   <si>
@@ -410,6 +407,30 @@
   </si>
   <si>
     <t>5. Water desorbed</t>
+  </si>
+  <si>
+    <t>Methanol dimer - one water desorbs</t>
+  </si>
+  <si>
+    <t>12-01</t>
+  </si>
+  <si>
+    <t>1101: CH3O(GaTop)-H2C(NSur)-H(NSur)</t>
+  </si>
+  <si>
+    <t>13-01</t>
+  </si>
+  <si>
+    <t>Methanol dimer - create OH2 leaving group</t>
+  </si>
+  <si>
+    <t>090202: double-protonated formaldehyde</t>
+  </si>
+  <si>
+    <t>4. Ga_OH and N_CH2 1101</t>
+  </si>
+  <si>
+    <t>*. N_CH2-OH2 1301</t>
   </si>
 </sst>
 </file>
@@ -417,7 +438,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -525,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,10 +567,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +900,7 @@
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -929,10 +952,12 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>-17.219767429417999</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2">
+        <v>-17.219521955565799</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,15 +1016,15 @@
       <c r="D11" s="1"/>
       <c r="E11">
         <f>(-$C$6+$C$5+$C$4)*E$2</f>
-        <v>0.17802711750618982</v>
+        <v>0.17827259135838958</v>
       </c>
       <c r="F11" s="6">
         <f>(-$C$6+$C$5+$C$4)*F$2</f>
-        <v>467.41019701250138</v>
+        <v>468.05468861145181</v>
       </c>
       <c r="G11">
         <f>(-$C$6+$C$5+$C$4)*G$2</f>
-        <v>4.8443646164888312</v>
+        <v>4.851044300238855</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1144,15 +1169,15 @@
       <c r="D20" s="1"/>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>2367.9794211960775</v>
+        <v>2367.9791757222251</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="1"/>
-        <v>6217129.9703503018</v>
+        <v>6217129.325858702</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>64436.002117582633</v>
+        <v>64435.995437898877</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1254,19 +1279,19 @@
         <v>1.0103949999999999</v>
       </c>
       <c r="E26">
-        <f>($C26-$C$15-$C$6)*E$2</f>
+        <f t="shared" ref="E26:G28" si="3">($C26-$C$15-$C$6)*E$2</f>
         <v>-1.4238023549658863E-2</v>
       </c>
       <c r="F26" s="6">
-        <f>($C26-$C$15-$C$6)*F$2</f>
+        <f t="shared" si="3"/>
         <v>-37.38193082962934</v>
       </c>
       <c r="G26">
-        <f>($C26-$C$15-$C$6)*G$2</f>
+        <f t="shared" si="3"/>
         <v>-0.38743635497161794</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H58" si="3">H$2/$E26</f>
+        <f t="shared" ref="H26:H58" si="4">H$2/$E26</f>
         <v>-3200.1178481575535</v>
       </c>
       <c r="I26" t="s">
@@ -1287,19 +1312,19 @@
         <v>0.99493200000000004</v>
       </c>
       <c r="E27">
-        <f>($C27-$C$15-$C$6)*E$2</f>
+        <f t="shared" si="3"/>
         <v>-6.7001951339442201E-2</v>
       </c>
       <c r="F27" s="6">
-        <f>($C27-$C$15-$C$6)*F$2</f>
+        <f t="shared" si="3"/>
         <v>-175.91362324170549</v>
       </c>
       <c r="G27">
-        <f>($C27-$C$15-$C$6)*G$2</f>
+        <f t="shared" si="3"/>
         <v>-1.8232159619908177</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-680.03024349126679</v>
       </c>
       <c r="I27" t="s">
@@ -1320,19 +1345,19 @@
         <v>1.012985</v>
       </c>
       <c r="E28">
-        <f>($C28-$C$15-$C$6)*E$2</f>
+        <f t="shared" si="3"/>
         <v>-0.10580842535036794</v>
       </c>
       <c r="F28" s="6">
-        <f>($C28-$C$15-$C$6)*F$2</f>
+        <f t="shared" si="3"/>
         <v>-277.80002075739105</v>
       </c>
       <c r="G28">
-        <f>($C28-$C$15-$C$6)*G$2</f>
+        <f t="shared" si="3"/>
         <v>-2.8791939063772158</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-430.62122069083841</v>
       </c>
       <c r="I28" t="s">
@@ -1360,7 +1385,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1384,15 +1409,15 @@
         <v>-5.8586695180018467E-2</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ref="F32:G32" si="4">($C32-$C$15-$C$6)*F$2</f>
+        <f t="shared" ref="F32:G32" si="5">($C32-$C$15-$C$6)*F$2</f>
         <v>-153.81936819513848</v>
       </c>
       <c r="G32">
+        <f t="shared" si="5"/>
+        <v>-1.5942251781795558</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="4"/>
-        <v>-1.5942251781795558</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
         <v>-777.70820053510533</v>
       </c>
     </row>
@@ -1414,15 +1439,15 @@
         <v>-4.1353027959665667E-2</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:G35" si="5">($C33-$C$15-$C$6)*F$2</f>
+        <f t="shared" ref="F33:G35" si="6">($C33-$C$15-$C$6)*F$2</f>
         <v>-108.5723749081022</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1252732069063154</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1101.8141967304507</v>
       </c>
       <c r="I33" t="s">
@@ -1447,15 +1472,15 @@
         <v>-8.6447539860635914E-2</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-226.96801590409959</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.3523573776271007</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-527.06361982312774</v>
       </c>
     </row>
@@ -1477,15 +1502,15 @@
         <v>-0.10621842304990281</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-278.87646971751985</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.8903505120465711</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-428.95904472564644</v>
       </c>
     </row>
@@ -1524,11 +1549,11 @@
         <v>-356.61114805783671</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="6">($C38-$C15-2*$C6)*G$2</f>
+        <f t="shared" ref="G38" si="7">($C38-$C15-2*$C6)*G$2</f>
         <v>-3.6960135626879329</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-335.4538541433551</v>
       </c>
       <c r="I38" t="s">
@@ -1553,15 +1578,15 @@
         <v>-0.13148644635911921</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" ref="F39:G39" si="7">($C39-$C15-2*$C6)*F$2</f>
+        <f t="shared" ref="F39:G39" si="8">($C39-$C15-2*$C6)*F$2</f>
         <v>-345.21766491586749</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.5779284482760163</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-346.52509475620838</v>
       </c>
       <c r="I39" s="7" t="s">
@@ -1619,19 +1644,19 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" ref="E44:G45" si="8">($C44-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E44:G45" si="9">($C44-$C$15-2*$C$6)*E$2</f>
         <v>-0.12838779749908724</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-337.08216233385355</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.4936099180052533</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-354.88850320120821</v>
       </c>
       <c r="I44" t="s">
@@ -1652,15 +1677,15 @@
         <v>1.008062</v>
       </c>
       <c r="E45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.11503262385012647</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-302.01815391850704</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.1301971324792497</v>
       </c>
       <c r="H45">
@@ -1707,22 +1732,22 @@
         <v>-4.6348971096715914</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-267.50151410753318</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1736,23 +1761,23 @@
         <v>1.0108809999999999</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:G52" si="9">($C51-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E51:G52" si="10">($C51-$C$15-2*$C$6)*E$2</f>
         <v>-0.13442541354997672</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-352.93392327546388</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6579018190065549</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-338.94895377659623</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>62</v>
       </c>
@@ -1766,15 +1791,15 @@
         <v>0.99854799999999999</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.22411402893958154</v>
       </c>
       <c r="F52" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-588.41138298087139</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.0984533539724044</v>
       </c>
       <c r="H52">
@@ -1785,12 +1810,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>84</v>
       </c>
@@ -1798,7 +1823,7 @@
       <c r="D54" s="2"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -1812,26 +1837,26 @@
         <v>1.0147459999999999</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:G58" si="10">($C55-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E55:G58" si="11">($C55-$C$15-2*$C$6)*E$2</f>
         <v>-0.14692347977943143</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-385.74759616089722</v>
       </c>
       <c r="G55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.9979915236797732</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-310.11621391048442</v>
       </c>
       <c r="I55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>60</v>
       </c>
@@ -1845,26 +1870,26 @@
         <v>1.021455</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.11360529895937077</v>
       </c>
       <c r="F56" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-298.27071241782795</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.0913576439009423</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-401.06714828545051</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
@@ -1878,7 +1903,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>95</v>
       </c>
@@ -1892,29 +1917,35 @@
         <v>0.99722200000000005</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.24610033579919843</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-646.13643164079554</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.6967312370836138</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-185.14136982294721</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="10"/>
       <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>90</v>
       </c>
@@ -1922,8 +1953,19 @@
       <c r="D60" s="1"/>
       <c r="E60" s="10"/>
       <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K60" s="22">
+        <f>C35+C6</f>
+        <v>-8504.70864852062</v>
+      </c>
+      <c r="L60" s="23">
+        <f>F2</f>
+        <v>2625.5</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -1941,15 +1983,23 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" ref="F61:G72" si="11">($C61-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F61:G72" si="12">($C61-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G61" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.5010731214101147</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="24">
+        <f>C38</f>
+        <v>-8504.7382560918795</v>
+      </c>
+      <c r="L61" s="24"/>
+      <c r="M61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>100</v>
       </c>
@@ -1967,18 +2017,26 @@
         <v>-0.22210766865900666</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-583.14368406422204</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.0438575098824856</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="24">
+        <f>C65</f>
+        <v>-8504.7545891209102</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>101</v>
       </c>
@@ -1988,7 +2046,7 @@
       <c r="C63" s="7">
         <v>-8504.8412831110509</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="21">
         <v>1.7963629999999999</v>
       </c>
       <c r="E63" s="7">
@@ -1996,15 +2054,23 @@
         <v>-0.23885301348018118</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-627.10858689221573</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.4995215518494733</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="24">
+        <f>C62</f>
+        <v>-8504.8245377662297</v>
+      </c>
+      <c r="L63" s="24"/>
+      <c r="M63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>105</v>
       </c>
@@ -2022,15 +2088,23 @@
         <v>-0.20170113573003334</v>
       </c>
       <c r="F64" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-529.56633185920259</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.4885674650223519</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="22">
+        <f>C78</f>
+        <v>-8504.7807323678007</v>
+      </c>
+      <c r="L64" s="22"/>
+      <c r="M64" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>117</v>
       </c>
@@ -2045,15 +2119,23 @@
         <v>-0.15215902333947895</v>
       </c>
       <c r="F65" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-399.49351577780197</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.1404579205167513</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K65" s="24">
+        <f>C72</f>
+        <v>-8504.84848926423</v>
+      </c>
+      <c r="L65" s="24"/>
+      <c r="M65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>87</v>
       </c>
@@ -2066,8 +2148,16 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="24">
+        <f>C75+C5</f>
+        <v>-8504.7354792517344</v>
+      </c>
+      <c r="L66" s="24"/>
+      <c r="M66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -2075,7 +2165,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>92</v>
       </c>
@@ -2086,7 +2176,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>89</v>
       </c>
@@ -2099,7 +2189,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -2107,7 +2197,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>96</v>
       </c>
@@ -2116,14 +2206,8 @@
       <c r="F71" s="9"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="J71" t="s">
-        <v>107</v>
-      </c>
-      <c r="K71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>99</v>
       </c>
@@ -2137,213 +2221,220 @@
         <v>1.0097529999999999</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" ref="E72" si="12">($C72-$C$15-2*$C$6)*E$2</f>
+        <f t="shared" ref="E72" si="13">($C72-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
       <c r="F72" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-646.02834206404918</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.6956109677263163</v>
       </c>
-      <c r="J72" s="2">
-        <v>-8480.6276854088701</v>
-      </c>
-      <c r="K72" s="20">
-        <f>F2</f>
-        <v>2625.5</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="E73" s="11"/>
       <c r="F73" s="12"/>
       <c r="G73" s="11"/>
-      <c r="J73" s="21">
-        <f>C38</f>
-        <v>-8504.7382560918795</v>
-      </c>
-      <c r="K73" s="21"/>
-      <c r="L73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>108</v>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="11"/>
-      <c r="J74">
-        <f>C65</f>
-        <v>-8504.7545891209102</v>
-      </c>
-      <c r="K74" s="21"/>
-      <c r="L74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="2">
-        <v>-8553.1986735656792</v>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75">
+        <v>-8487.5159572961693</v>
       </c>
       <c r="E75" s="11">
-        <f>($C75-$C$15-4*$C$6)*E$2</f>
-        <v>-0.43431724460751298</v>
+        <f>($C75+$C5-$C15-2*$C6)*E$2</f>
+        <v>-0.13304915416374286</v>
       </c>
       <c r="F75" s="12">
-        <f>($C75-$C$15-4*$C$6)*F$2</f>
-        <v>-1140.2999257170254</v>
+        <f t="shared" ref="F75:G75" si="14">($C75+$C5-$C15-2*$C6)*F$2</f>
+        <v>-349.32055425690686</v>
       </c>
       <c r="G75" s="11">
-        <f>($C75-$C$15-4*$C$6)*G$2</f>
-        <v>-11.818374198157798</v>
-      </c>
-      <c r="J75" s="21">
-        <f>C62</f>
-        <v>-8504.8245377662297</v>
-      </c>
-      <c r="K75" s="21"/>
-      <c r="L75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76"/>
+        <f t="shared" si="14"/>
+        <v>-3.620451893584097</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="12"/>
       <c r="G76" s="11"/>
-      <c r="J76" s="21">
-        <f>C72</f>
-        <v>-8504.84848926423</v>
-      </c>
-      <c r="L76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="12"/>
       <c r="G77" s="11"/>
-      <c r="L77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="5">
+        <v>-8504.7807323678007</v>
+      </c>
+      <c r="E78" s="11">
+        <f>($C78-$C$15-2*$C$6)*E$2</f>
+        <v>-0.17830227023004852</v>
+      </c>
+      <c r="F78" s="12">
+        <f t="shared" ref="F78:G78" si="15">($C78-$C$15-2*$C$6)*F$2</f>
+        <v>-468.13261048899238</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="15"/>
+        <v>-4.8518519034722045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2">
+        <v>-8553.1986735656792</v>
+      </c>
+      <c r="E81" s="11">
+        <f>($C81-$C$15-4*$C$6)*E$2</f>
+        <v>-0.43431724460751298</v>
+      </c>
+      <c r="F81" s="12">
+        <f>($C81-$C$15-4*$C$6)*F$2</f>
+        <v>-1140.2999257170254</v>
+      </c>
+      <c r="G81" s="11">
+        <f>($C81-$C$15-4*$C$6)*G$2</f>
+        <v>-11.818374198157798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C84" s="2">
         <v>-8577.3080842830095</v>
       </c>
-      <c r="E78" s="11">
-        <f>($C78-$C$15-5*$C$6)*E$2</f>
+      <c r="E84" s="11">
+        <f>($C84-$C$15-5*$C$6)*E$2</f>
         <v>-0.46276485018734093</v>
       </c>
-      <c r="F78" s="12">
-        <f>($C78-$C$15-5*$C$6)*F$2</f>
+      <c r="F84" s="12">
+        <f>($C84-$C$15-5*$C$6)*F$2</f>
         <v>-1214.9891141668636</v>
       </c>
-      <c r="G78" s="11">
-        <f>($C78-$C$15-5*$C$6)*G$2</f>
+      <c r="G84" s="11">
+        <f>($C84-$C$15-5*$C$6)*G$2</f>
         <v>-12.592472974935204</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="E79" s="11">
-        <f>($C78-$C$75-$C$6)*E$2</f>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="E85" s="11">
+        <f>($C84-$C$81-$C$6)*E$2</f>
         <v>-2.8447605579820845E-2</v>
       </c>
-      <c r="F79" s="12">
-        <f>($C78-$C$75-$C$6)*F$2</f>
+      <c r="F85" s="12">
+        <f>($C84-$C$81-$C$6)*F$2</f>
         <v>-74.689188449819625</v>
       </c>
-      <c r="G79" s="11">
-        <f>($C78-$C$75-$C$6)*G$2</f>
+      <c r="G85" s="11">
+        <f>($C84-$C$81-$C$6)*G$2</f>
         <v>-0.77409877677721095</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="F96" s="6"/>
     </row>
@@ -2594,6 +2685,30 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="F164" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1776B3-E5A7-5F4C-AA0F-2CF603E1936B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9615E-4E1D-1B46-950A-1D8E93065CFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>CH2</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Energy conversion</t>
   </si>
   <si>
-    <t>0. zero of energy</t>
-  </si>
-  <si>
     <t>Single methanol, OH dissociated on the surface</t>
   </si>
   <si>
@@ -430,7 +427,19 @@
     <t>4. Ga_OH and N_CH2 1101</t>
   </si>
   <si>
-    <t>*. N_CH2-OH2 1301</t>
+    <t>*4. N_CH2-OH2 1301</t>
+  </si>
+  <si>
+    <t>09-04</t>
+  </si>
+  <si>
+    <t>0401: CH2 moves to Ntop</t>
+  </si>
+  <si>
+    <t>This is to account on 100% occupation of Nsur</t>
+  </si>
+  <si>
+    <t>0. zero of energy: 1 methanol adsorbed</t>
   </si>
 </sst>
 </file>
@@ -886,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1394,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1962,7 +1971,7 @@
         <v>2625.5</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -1983,7 +1992,7 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" ref="F61:G72" si="12">($C61-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F61:G73" si="12">($C61-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G61" s="11">
@@ -2096,12 +2105,12 @@
         <v>-5.4885674650223519</v>
       </c>
       <c r="K64" s="22">
-        <f>C78</f>
-        <v>-8504.7807323678007</v>
+        <f>C79</f>
+        <v>-8504.7712410314907</v>
       </c>
       <c r="L64" s="22"/>
       <c r="M64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2127,12 +2136,12 @@
         <v>-4.1404579205167513</v>
       </c>
       <c r="K65" s="24">
-        <f>C72</f>
+        <f>C73</f>
         <v>-8504.84848926423</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -2144,31 +2153,50 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="7"/>
       <c r="K66" s="24">
-        <f>C75+C5</f>
+        <f>C76+C5</f>
         <v>-8504.7354792517344</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
+      <c r="A67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="5">
+        <v>-8504.7987475601803</v>
+      </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="2">
+        <f>($C67-$C$15-2*$C$6)*E$2</f>
+        <v>-0.19631746260965599</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="12"/>
+        <v>-515.43149808165185</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="12"/>
+        <v>-5.3420702575382659</v>
+      </c>
       <c r="H67" s="7"/>
+      <c r="I67" t="s">
+        <v>134</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2177,12 +2205,10 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
+      <c r="A69" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
@@ -2190,7 +2216,12 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70"/>
+      <c r="A70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
@@ -2198,205 +2229,209 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A71"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C73" s="11">
         <v>-8504.84848926423</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>1.0097529999999999</v>
       </c>
-      <c r="E72" s="11">
-        <f t="shared" ref="E72" si="13">($C72-$C$15-2*$C$6)*E$2</f>
+      <c r="E73" s="11">
+        <f t="shared" ref="E73" si="13">($C73-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <f t="shared" si="12"/>
         <v>-646.02834206404918</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <f t="shared" si="12"/>
         <v>-6.6956109677263163</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="11"/>
-    </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="A74"/>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75">
+      <c r="C76">
         <v>-8487.5159572961693</v>
       </c>
-      <c r="E75" s="11">
-        <f>($C75+$C5-$C15-2*$C6)*E$2</f>
+      <c r="E76" s="11">
+        <f>($C76+$C5-$C15-2*$C6)*E$2</f>
         <v>-0.13304915416374286</v>
       </c>
-      <c r="F75" s="12">
-        <f t="shared" ref="F75:G75" si="14">($C75+$C5-$C15-2*$C6)*F$2</f>
+      <c r="F76" s="12">
+        <f t="shared" ref="F76:G76" si="14">($C76+$C5-$C15-2*$C6)*F$2</f>
         <v>-349.32055425690686</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <f t="shared" si="14"/>
         <v>-3.620451893584097</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-    </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="B77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="12"/>
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="5">
-        <v>-8504.7807323678007</v>
-      </c>
-      <c r="E78" s="11">
-        <f>($C78-$C$15-2*$C$6)*E$2</f>
-        <v>-0.17830227023004852</v>
-      </c>
-      <c r="F78" s="12">
-        <f t="shared" ref="F78:G78" si="15">($C78-$C$15-2*$C$6)*F$2</f>
-        <v>-468.13261048899238</v>
-      </c>
-      <c r="G78" s="11">
+      <c r="B78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="2">
+        <v>-8504.7712410314907</v>
+      </c>
+      <c r="E79" s="11">
+        <f>($C79-$C$15-2*$C$6)*E$2</f>
+        <v>-0.16881093392002811</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" ref="F79:G79" si="15">($C79-$C$15-2*$C$6)*F$2</f>
+        <v>-443.21310700703378</v>
+      </c>
+      <c r="G79" s="11">
         <f t="shared" si="15"/>
-        <v>-4.8518519034722045</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="11"/>
+        <v>-4.5935794872945968</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="A80"/>
       <c r="E80" s="11"/>
       <c r="F80" s="12"/>
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>109</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>-8553.1986735656792</v>
       </c>
-      <c r="E81" s="11">
-        <f>($C81-$C$15-4*$C$6)*E$2</f>
+      <c r="E82" s="11">
+        <f>($C82-$C$15-4*$C$6)*E$2</f>
         <v>-0.43431724460751298</v>
       </c>
-      <c r="F81" s="12">
-        <f>($C81-$C$15-4*$C$6)*F$2</f>
+      <c r="F82" s="12">
+        <f>($C82-$C$15-4*$C$6)*F$2</f>
         <v>-1140.2999257170254</v>
       </c>
-      <c r="G81" s="11">
-        <f>($C81-$C$15-4*$C$6)*G$2</f>
+      <c r="G82" s="11">
+        <f>($C82-$C$15-4*$C$6)*G$2</f>
         <v>-11.818374198157798</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11"/>
-    </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="A83"/>
       <c r="E83" s="11"/>
       <c r="F83" s="12"/>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>-8577.3080842830095</v>
       </c>
-      <c r="E84" s="11">
-        <f>($C84-$C$15-5*$C$6)*E$2</f>
+      <c r="E85" s="11">
+        <f>($C85-$C$15-5*$C$6)*E$2</f>
         <v>-0.46276485018734093</v>
       </c>
-      <c r="F84" s="12">
-        <f>($C84-$C$15-5*$C$6)*F$2</f>
+      <c r="F85" s="12">
+        <f>($C85-$C$15-5*$C$6)*F$2</f>
         <v>-1214.9891141668636</v>
       </c>
-      <c r="G84" s="11">
-        <f>($C84-$C$15-5*$C$6)*G$2</f>
+      <c r="G85" s="11">
+        <f>($C85-$C$15-5*$C$6)*G$2</f>
         <v>-12.592472974935204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="E85" s="11">
-        <f>($C84-$C$81-$C$6)*E$2</f>
-        <v>-2.8447605579820845E-2</v>
-      </c>
-      <c r="F85" s="12">
-        <f>($C84-$C$81-$C$6)*F$2</f>
-        <v>-74.689188449819625</v>
-      </c>
-      <c r="G85" s="11">
-        <f>($C84-$C$81-$C$6)*G$2</f>
-        <v>-0.77409877677721095</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
-      <c r="F86" s="6"/>
+      <c r="E86" s="11">
+        <f>($C85-$C$82-$C$6)*E$2</f>
+        <v>-2.8447605579820845E-2</v>
+      </c>
+      <c r="F86" s="12">
+        <f>($C85-$C$82-$C$6)*F$2</f>
+        <v>-74.689188449819625</v>
+      </c>
+      <c r="G86" s="11">
+        <f>($C85-$C$82-$C$6)*G$2</f>
+        <v>-0.77409877677721095</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -2709,6 +2744,10 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="F165" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9615E-4E1D-1B46-950A-1D8E93065CFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB4C6A-92C0-3540-93B9-4F7D59D348A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>CH2</t>
   </si>
@@ -391,9 +391,6 @@
     <t>1. Dimer 0401</t>
   </si>
   <si>
-    <t>3. N..CH2-OH 090202</t>
-  </si>
-  <si>
     <t>2. Formaldehyde 090205</t>
   </si>
   <si>
@@ -440,6 +437,15 @@
   </si>
   <si>
     <t>0. zero of energy: 1 methanol adsorbed</t>
+  </si>
+  <si>
+    <t>3. N..CH2-OH 090202-&gt;0904</t>
+  </si>
+  <si>
+    <t>12-02</t>
+  </si>
+  <si>
+    <t>0904: CH3O(GaTop)-H2C(NTop)-H(NSur)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,6 +587,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1401,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1951,7 +1958,7 @@
         <v>107</v>
       </c>
       <c r="L59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -1971,7 +1978,7 @@
         <v>2625.5</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2042,7 +2049,7 @@
       </c>
       <c r="L62" s="24"/>
       <c r="M62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2071,12 +2078,12 @@
         <v>-6.4995215518494733</v>
       </c>
       <c r="K63" s="24">
-        <f>C62</f>
-        <v>-8504.8245377662297</v>
+        <f>C67</f>
+        <v>-8504.7987475601803</v>
       </c>
       <c r="L63" s="24"/>
       <c r="M63" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2105,12 +2112,12 @@
         <v>-5.4885674650223519</v>
       </c>
       <c r="K64" s="22">
-        <f>C79</f>
+        <f>C80</f>
         <v>-8504.7712410314907</v>
       </c>
       <c r="L64" s="22"/>
       <c r="M64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2148,7 @@
       </c>
       <c r="L65" s="24"/>
       <c r="M65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -2163,15 +2170,15 @@
       </c>
       <c r="L66" s="24"/>
       <c r="M66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="C67" s="5">
         <v>-8504.7987475601803</v>
@@ -2191,7 +2198,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
@@ -2280,7 +2287,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
@@ -2288,10 +2295,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C76">
         <v>-8487.5159572961693</v>
@@ -2310,132 +2317,140 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="11"/>
+      <c r="A77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="5"/>
       <c r="E77" s="11"/>
       <c r="F77" s="12"/>
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>128</v>
-      </c>
       <c r="B78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="12"/>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="2">
         <v>-8504.7712410314907</v>
       </c>
-      <c r="E79" s="11">
-        <f>($C79-$C$15-2*$C$6)*E$2</f>
+      <c r="E80" s="11">
+        <f>($C80-$C$15-2*$C$6)*E$2</f>
         <v>-0.16881093392002811</v>
       </c>
-      <c r="F79" s="12">
-        <f t="shared" ref="F79:G79" si="15">($C79-$C$15-2*$C$6)*F$2</f>
+      <c r="F80" s="12">
+        <f t="shared" ref="F80:G80" si="15">($C80-$C$15-2*$C$6)*F$2</f>
         <v>-443.21310700703378</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <f t="shared" si="15"/>
         <v>-4.5935794872945968</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="11"/>
-    </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="A81"/>
       <c r="E81" s="11"/>
       <c r="F81" s="12"/>
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>109</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>-8553.1986735656792</v>
       </c>
-      <c r="E82" s="11">
-        <f>($C82-$C$15-4*$C$6)*E$2</f>
+      <c r="E83" s="11">
+        <f>($C83-$C$15-4*$C$6)*E$2</f>
         <v>-0.43431724460751298</v>
       </c>
-      <c r="F82" s="12">
-        <f>($C82-$C$15-4*$C$6)*F$2</f>
+      <c r="F83" s="12">
+        <f>($C83-$C$15-4*$C$6)*F$2</f>
         <v>-1140.2999257170254</v>
       </c>
-      <c r="G82" s="11">
-        <f>($C82-$C$15-4*$C$6)*G$2</f>
+      <c r="G83" s="11">
+        <f>($C83-$C$15-4*$C$6)*G$2</f>
         <v>-11.818374198157798</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11"/>
-    </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="A84"/>
       <c r="E84" s="11"/>
       <c r="F84" s="12"/>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>-8577.3080842830095</v>
       </c>
-      <c r="E85" s="11">
-        <f>($C85-$C$15-5*$C$6)*E$2</f>
+      <c r="E86" s="11">
+        <f>($C86-$C$15-5*$C$6)*E$2</f>
         <v>-0.46276485018734093</v>
       </c>
-      <c r="F85" s="12">
-        <f>($C85-$C$15-5*$C$6)*F$2</f>
+      <c r="F86" s="12">
+        <f>($C86-$C$15-5*$C$6)*F$2</f>
         <v>-1214.9891141668636</v>
       </c>
-      <c r="G85" s="11">
-        <f>($C85-$C$15-5*$C$6)*G$2</f>
+      <c r="G86" s="11">
+        <f>($C86-$C$15-5*$C$6)*G$2</f>
         <v>-12.592472974935204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="E86" s="11">
-        <f>($C85-$C$82-$C$6)*E$2</f>
-        <v>-2.8447605579820845E-2</v>
-      </c>
-      <c r="F86" s="12">
-        <f>($C85-$C$82-$C$6)*F$2</f>
-        <v>-74.689188449819625</v>
-      </c>
-      <c r="G86" s="11">
-        <f>($C85-$C$82-$C$6)*G$2</f>
-        <v>-0.77409877677721095</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="F87" s="6"/>
+      <c r="E87" s="11">
+        <f>($C86-$C$83-$C$6)*E$2</f>
+        <v>-2.8447605579820845E-2</v>
+      </c>
+      <c r="F87" s="12">
+        <f>($C86-$C$83-$C$6)*F$2</f>
+        <v>-74.689188449819625</v>
+      </c>
+      <c r="G87" s="11">
+        <f>($C86-$C$83-$C$6)*G$2</f>
+        <v>-0.77409877677721095</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
@@ -2748,6 +2763,10 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="F166" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Carbene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB4C6A-92C0-3540-93B9-4F7D59D348A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A439B8A-3BE1-4842-B933-926EF078DBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{389FE9DC-3C31-C542-84D7-1E9A14B92B24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="144">
   <si>
     <t>CH2</t>
   </si>
@@ -391,6 +391,9 @@
     <t>1. Dimer 0401</t>
   </si>
   <si>
+    <t>3. N..CH2-OH 090202</t>
+  </si>
+  <si>
     <t>2. Formaldehyde 090205</t>
   </si>
   <si>
@@ -400,9 +403,6 @@
     <t>Single methanol, OH dissociated on the surface</t>
   </si>
   <si>
-    <t>5. Water desorbed</t>
-  </si>
-  <si>
     <t>Methanol dimer - one water desorbs</t>
   </si>
   <si>
@@ -436,16 +436,34 @@
     <t>This is to account on 100% occupation of Nsur</t>
   </si>
   <si>
-    <t>0. zero of energy: 1 methanol adsorbed</t>
-  </si>
-  <si>
-    <t>3. N..CH2-OH 090202-&gt;0904</t>
-  </si>
-  <si>
     <t>12-02</t>
   </si>
   <si>
     <t>0904: CH3O(GaTop)-H2C(NTop)-H(NSur)</t>
+  </si>
+  <si>
+    <t>11-02</t>
+  </si>
+  <si>
+    <t>0904: CH3O(GaTop)-H2C(NTop)-H(NSur)-H2O(bridge)</t>
+  </si>
+  <si>
+    <t>5. Water desorbed 1201</t>
+  </si>
+  <si>
+    <t>0. zero: 1 methanol adsorbed 0304</t>
+  </si>
+  <si>
+    <t>More reasonable path</t>
+  </si>
+  <si>
+    <t>3. N(Top)..CH2-OH 0904</t>
+  </si>
+  <si>
+    <t>5. Water desorbed 1202</t>
+  </si>
+  <si>
+    <t>4. C-O bond is broken 1102</t>
   </si>
 </sst>
 </file>
@@ -902,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB610F-34EA-F848-A0D0-9EDBBE72A173}">
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1419,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1958,7 +1976,7 @@
         <v>107</v>
       </c>
       <c r="L59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -1978,7 +1996,7 @@
         <v>2625.5</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -1999,7 +2017,7 @@
         <v>-0.20216071012946202</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" ref="F61:G73" si="12">($C61-$C$15-2*$C$6)*F$2</f>
+        <f t="shared" ref="F61:G74" si="12">($C61-$C$15-2*$C$6)*F$2</f>
         <v>-530.77294444490258</v>
       </c>
       <c r="G61" s="11">
@@ -2049,7 +2067,7 @@
       </c>
       <c r="L62" s="24"/>
       <c r="M62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2078,12 +2096,12 @@
         <v>-6.4995215518494733</v>
       </c>
       <c r="K63" s="24">
-        <f>C67</f>
-        <v>-8504.7987475601803</v>
+        <f>C62</f>
+        <v>-8504.8245377662297</v>
       </c>
       <c r="L63" s="24"/>
       <c r="M63" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2112,7 +2130,7 @@
         <v>-5.4885674650223519</v>
       </c>
       <c r="K64" s="22">
-        <f>C80</f>
+        <f>C81</f>
         <v>-8504.7712410314907</v>
       </c>
       <c r="L64" s="22"/>
@@ -2165,12 +2183,12 @@
       <c r="G66" s="2"/>
       <c r="H66" s="7"/>
       <c r="K66" s="24">
-        <f>C76+C5</f>
+        <f>C77+C5</f>
         <v>-8504.7354792517344</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -2181,20 +2199,20 @@
         <v>132</v>
       </c>
       <c r="C67" s="5">
-        <v>-8504.7987475601803</v>
+        <v>-8504.8112244323293</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="2">
         <f>($C67-$C$15-2*$C$6)*E$2</f>
-        <v>-0.19631746260965599</v>
+        <v>-0.20879433475856501</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="12"/>
-        <v>-515.43149808165185</v>
+        <v>-548.1895259086125</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="12"/>
-        <v>-5.3420702575382659</v>
+        <v>-5.6815832419044163</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" t="s">
@@ -2210,6 +2228,9 @@
       <c r="F68" s="9"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
+      <c r="K68" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -2221,6 +2242,18 @@
       <c r="F69" s="9"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
+      <c r="K69" s="24">
+        <f>C35+C6</f>
+        <v>-8504.70864852062</v>
+      </c>
+      <c r="L69" s="24">
+        <f>F2</f>
+        <v>2625.5</v>
+      </c>
+      <c r="M69" t="str">
+        <f>M60</f>
+        <v>0. zero: 1 methanol adsorbed 0304</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
@@ -2234,6 +2267,15 @@
       <c r="F70" s="9"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
+      <c r="K70" s="24">
+        <f>C38</f>
+        <v>-8504.7382560918795</v>
+      </c>
+      <c r="L70" s="24"/>
+      <c r="M70" t="str">
+        <f>M61</f>
+        <v>1. Dimer 0401</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -2242,6 +2284,15 @@
       <c r="F71" s="9"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
+      <c r="K71" s="24">
+        <f>C65</f>
+        <v>-8504.7545891209102</v>
+      </c>
+      <c r="L71" s="24"/>
+      <c r="M71" t="str">
+        <f>M62</f>
+        <v>2. Formaldehyde 090205</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
@@ -2252,6 +2303,14 @@
       <c r="F72" s="9"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
+      <c r="K72" s="24">
+        <f>C67</f>
+        <v>-8504.8112244323293</v>
+      </c>
+      <c r="L72" s="24"/>
+      <c r="M72" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
@@ -2267,7 +2326,7 @@
         <v>1.0097529999999999</v>
       </c>
       <c r="E73" s="11">
-        <f t="shared" ref="E73" si="13">($C73-$C$15-2*$C$6)*E$2</f>
+        <f>($C73-$C$15-2*$C$6)*E$2</f>
         <v>-0.2460591666593217</v>
       </c>
       <c r="F73" s="12">
@@ -2278,183 +2337,232 @@
         <f t="shared" si="12"/>
         <v>-6.6956109677263163</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="11"/>
+      <c r="K73" s="23">
+        <f>C74</f>
+        <v>-8504.7658655707</v>
+      </c>
+      <c r="L73" s="23"/>
+      <c r="M73" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="2">
+        <v>-8504.7658655707</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1.006726</v>
+      </c>
+      <c r="E74" s="11">
+        <f>($C74-$C$15-2*$C$6)*E$2</f>
+        <v>-0.16343547312935414</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" si="12"/>
+        <v>-429.09983470111928</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="12"/>
+        <v>-4.4473057486841929</v>
+      </c>
+      <c r="K74" s="23">
+        <f>C78+C5</f>
+        <v>-8504.7351667013554</v>
+      </c>
+      <c r="L74" s="23"/>
+      <c r="M74" s="11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="A75"/>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76">
-        <v>-8487.5159572961693</v>
-      </c>
-      <c r="E76" s="11">
-        <f>($C76+$C5-$C15-2*$C6)*E$2</f>
-        <v>-0.13304915416374286</v>
-      </c>
-      <c r="F76" s="12">
-        <f t="shared" ref="F76:G76" si="14">($C76+$C5-$C15-2*$C6)*F$2</f>
-        <v>-349.32055425690686</v>
-      </c>
-      <c r="G76" s="11">
-        <f t="shared" si="14"/>
-        <v>-3.620451893584097</v>
-      </c>
+      <c r="A76" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77">
+        <v>-8487.5159572961693</v>
+      </c>
+      <c r="E77" s="11">
+        <f>($C77+$C5-$C15-2*$C6)*E$2</f>
+        <v>-0.13304915416374286</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" ref="F77:G78" si="13">($C77+$C5-$C15-2*$C6)*F$2</f>
+        <v>-349.32055425690686</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="13"/>
+        <v>-3.620451893584097</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="11"/>
+      <c r="A78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="5">
+        <v>-8487.5156447457903</v>
+      </c>
+      <c r="E78" s="11">
+        <f>($C78+$C5-$C15-2*$C6)*E$2</f>
+        <v>-0.1327366037847213</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" ref="F78:G78" si="14">($C78+$C5-$C15-2*$C6)*F$2</f>
+        <v>-348.49995323678576</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="14"/>
+        <v>-3.6119469645698441</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="B79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="12"/>
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>-8504.7712410314907</v>
       </c>
-      <c r="E80" s="11">
-        <f>($C80-$C$15-2*$C$6)*E$2</f>
+      <c r="E81" s="11">
+        <f>($C81-$C$15-2*$C$6)*E$2</f>
         <v>-0.16881093392002811</v>
       </c>
-      <c r="F80" s="12">
-        <f t="shared" ref="F80:G80" si="15">($C80-$C$15-2*$C$6)*F$2</f>
+      <c r="F81" s="12">
+        <f t="shared" ref="F81:G81" si="15">($C81-$C$15-2*$C$6)*F$2</f>
         <v>-443.21310700703378</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <f t="shared" si="15"/>
         <v>-4.5935794872945968</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="11"/>
-    </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="A82"/>
       <c r="E82" s="11"/>
       <c r="F82" s="12"/>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>109</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>-8553.1986735656792</v>
       </c>
-      <c r="E83" s="11">
-        <f>($C83-$C$15-4*$C$6)*E$2</f>
+      <c r="E84" s="11">
+        <f>($C84-$C$15-4*$C$6)*E$2</f>
         <v>-0.43431724460751298</v>
       </c>
-      <c r="F83" s="12">
-        <f>($C83-$C$15-4*$C$6)*F$2</f>
+      <c r="F84" s="12">
+        <f>($C84-$C$15-4*$C$6)*F$2</f>
         <v>-1140.2999257170254</v>
       </c>
-      <c r="G83" s="11">
-        <f>($C83-$C$15-4*$C$6)*G$2</f>
+      <c r="G84" s="11">
+        <f>($C84-$C$15-4*$C$6)*G$2</f>
         <v>-11.818374198157798</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11"/>
-    </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="A85"/>
       <c r="E85" s="11"/>
       <c r="F85" s="12"/>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>-8577.3080842830095</v>
       </c>
-      <c r="E86" s="11">
-        <f>($C86-$C$15-5*$C$6)*E$2</f>
+      <c r="E87" s="11">
+        <f>($C87-$C$15-5*$C$6)*E$2</f>
         <v>-0.46276485018734093</v>
       </c>
-      <c r="F86" s="12">
-        <f>($C86-$C$15-5*$C$6)*F$2</f>
+      <c r="F87" s="12">
+        <f>($C87-$C$15-5*$C$6)*F$2</f>
         <v>-1214.9891141668636</v>
       </c>
-      <c r="G86" s="11">
-        <f>($C86-$C$15-5*$C$6)*G$2</f>
+      <c r="G87" s="11">
+        <f>($C87-$C$15-5*$C$6)*G$2</f>
         <v>-12.592472974935204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="E87" s="11">
-        <f>($C86-$C$83-$C$6)*E$2</f>
-        <v>-2.8447605579820845E-2</v>
-      </c>
-      <c r="F87" s="12">
-        <f>($C86-$C$83-$C$6)*F$2</f>
-        <v>-74.689188449819625</v>
-      </c>
-      <c r="G87" s="11">
-        <f>($C86-$C$83-$C$6)*G$2</f>
-        <v>-0.77409877677721095</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="F88" s="6"/>
+      <c r="E88" s="11">
+        <f>($C87-$C$84-$C$6)*E$2</f>
+        <v>-2.8447605579820845E-2</v>
+      </c>
+      <c r="F88" s="12">
+        <f>($C87-$C$84-$C$6)*F$2</f>
+        <v>-74.689188449819625</v>
+      </c>
+      <c r="G88" s="11">
+        <f>($C87-$C$84-$C$6)*G$2</f>
+        <v>-0.77409877677721095</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -2767,6 +2875,10 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="F167" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
